--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\o.lukasevych\Documents\Work_docs\Презентации АИ\Видение2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\o.lukasevych\Documents\Python_Scripts\Ukr_budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="633">
   <si>
     <t xml:space="preserve">Демографические параметры населения Украины. Без изменений политики </t>
   </si>
@@ -209,18 +209,6 @@
   </si>
   <si>
     <t>http://database.ukrcensus.gov.ua/MULT/Dialog/statfile_c.asp</t>
-  </si>
-  <si>
-    <t>старші 65 - 6,6758</t>
-  </si>
-  <si>
-    <t>0 - 15: 6,816</t>
-  </si>
-  <si>
-    <t>16-59: ж 1,365, ч 1,2962</t>
-  </si>
-  <si>
-    <t>старші 60 - ч 3,317 ж 6,013</t>
   </si>
   <si>
     <t xml:space="preserve">Демографические параметры населения Украины. Проектная </t>
@@ -2253,6 +2241,15 @@
   <si>
     <t>Сальдо по накоплению с поддержкой</t>
   </si>
+  <si>
+    <t xml:space="preserve">есть </t>
+  </si>
+  <si>
+    <t>http://www.ukrstat.gov.ua/operativ/operativ2007/ds/nas_rik/nas_u/nas_rik_u.html</t>
+  </si>
+  <si>
+    <t>циклическая ссылка ????????</t>
+  </si>
 </sst>
 </file>
 
@@ -2263,7 +2260,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2753,8 +2750,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2830,6 +2834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3618,7 +3628,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4362,9 +4372,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4377,156 +4384,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="54" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4627,6 +4486,157 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="54" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4696,36 +4706,6 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="57" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="55" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4750,9 +4730,41 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="58" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="55" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="57" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="53" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5782,7 +5794,7 @@
   <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5794,16 +5806,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
     </row>
     <row r="2" spans="1:20">
       <c r="L2" s="58"/>
@@ -6473,8 +6485,8 @@
       <c r="J19" s="16">
         <v>6.9101597975593796</v>
       </c>
-      <c r="K19" t="s">
-        <v>29</v>
+      <c r="K19" s="425" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6540,8 +6552,8 @@
         <f>B9*B23/100</f>
         <v>8.0828750463959302</v>
       </c>
-      <c r="C22" s="21">
-        <v>8.0127120000000005</v>
+      <c r="C22" s="424">
+        <v>7.6</v>
       </c>
       <c r="D22" s="21">
         <v>8.3351299999999995</v>
@@ -6565,10 +6577,10 @@
         <v>6.0942562915725027</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" t="s">
-        <v>58</v>
+        <v>630</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6580,7 +6592,7 @@
       </c>
       <c r="C23" s="24">
         <f t="shared" ref="C23:J23" si="10">C22/C9*100</f>
-        <v>18.677650349650353</v>
+        <v>17.715617715617714</v>
       </c>
       <c r="D23" s="24">
         <f t="shared" si="10"/>
@@ -6624,7 +6636,7 @@
       </c>
       <c r="C24" s="24">
         <f>C22/C19</f>
-        <v>0.77309393607432475</v>
+        <v>0.73327406677849738</v>
       </c>
       <c r="D24" s="24">
         <f t="shared" ref="D24:J24" si="11">D22/D19</f>
@@ -6781,11 +6793,8 @@
       <c r="J28" s="29">
         <v>12.402099472097303</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="425" t="s">
         <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -6842,9 +6851,6 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="L30" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="33" t="s">
@@ -6854,7 +6860,7 @@
         <f>B9*B32/100</f>
         <v>9.2614833354366812</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="424">
         <v>9.2643601509793907</v>
       </c>
       <c r="D31" s="34">
@@ -6880,10 +6886,10 @@
         <v>12.051735121577604</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="L31" s="50" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -7020,18 +7026,18 @@
       <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="292" t="s">
+      <c r="B38" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="293"/>
-      <c r="G38" s="293"/>
-      <c r="H38" s="293"/>
-      <c r="I38" s="293"/>
-      <c r="J38" s="293"/>
-      <c r="K38" s="294"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="292"/>
+      <c r="H38" s="292"/>
+      <c r="I38" s="292"/>
+      <c r="J38" s="292"/>
+      <c r="K38" s="293"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="44" t="s">
@@ -7189,36 +7195,36 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="295" t="s">
+      <c r="A45" s="294" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="295"/>
-      <c r="C45" s="295"/>
-      <c r="D45" s="295"/>
-      <c r="E45" s="295"/>
-      <c r="F45" s="295"/>
-      <c r="G45" s="295"/>
-      <c r="H45" s="295"/>
-      <c r="I45" s="295"/>
-      <c r="J45" s="295"/>
-      <c r="K45" s="295"/>
+      <c r="B45" s="294"/>
+      <c r="C45" s="294"/>
+      <c r="D45" s="294"/>
+      <c r="E45" s="294"/>
+      <c r="F45" s="294"/>
+      <c r="G45" s="294"/>
+      <c r="H45" s="294"/>
+      <c r="I45" s="294"/>
+      <c r="J45" s="294"/>
+      <c r="K45" s="294"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="292" t="s">
+      <c r="B46" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="293"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="293"/>
-      <c r="F46" s="293"/>
-      <c r="G46" s="293"/>
-      <c r="H46" s="293"/>
-      <c r="I46" s="293"/>
-      <c r="J46" s="293"/>
-      <c r="K46" s="294"/>
+      <c r="C46" s="292"/>
+      <c r="D46" s="292"/>
+      <c r="E46" s="292"/>
+      <c r="F46" s="292"/>
+      <c r="G46" s="292"/>
+      <c r="H46" s="292"/>
+      <c r="I46" s="292"/>
+      <c r="J46" s="292"/>
+      <c r="K46" s="293"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="44" t="s">
@@ -8381,36 +8387,36 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A89" s="295" t="s">
+      <c r="A89" s="294" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="295"/>
-      <c r="C89" s="295"/>
-      <c r="D89" s="295"/>
-      <c r="E89" s="295"/>
-      <c r="F89" s="295"/>
-      <c r="G89" s="295"/>
-      <c r="H89" s="295"/>
-      <c r="I89" s="295"/>
-      <c r="J89" s="295"/>
-      <c r="K89" s="295"/>
+      <c r="B89" s="294"/>
+      <c r="C89" s="294"/>
+      <c r="D89" s="294"/>
+      <c r="E89" s="294"/>
+      <c r="F89" s="294"/>
+      <c r="G89" s="294"/>
+      <c r="H89" s="294"/>
+      <c r="I89" s="294"/>
+      <c r="J89" s="294"/>
+      <c r="K89" s="294"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="292" t="s">
+      <c r="B90" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="293"/>
-      <c r="D90" s="293"/>
-      <c r="E90" s="293"/>
-      <c r="F90" s="293"/>
-      <c r="G90" s="293"/>
-      <c r="H90" s="293"/>
-      <c r="I90" s="293"/>
-      <c r="J90" s="293"/>
-      <c r="K90" s="294"/>
+      <c r="C90" s="292"/>
+      <c r="D90" s="292"/>
+      <c r="E90" s="292"/>
+      <c r="F90" s="292"/>
+      <c r="G90" s="292"/>
+      <c r="H90" s="292"/>
+      <c r="I90" s="292"/>
+      <c r="J90" s="292"/>
+      <c r="K90" s="293"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="44" t="s">
@@ -8715,36 +8721,36 @@
       <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A102" s="295" t="s">
+      <c r="A102" s="294" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="295"/>
-      <c r="C102" s="295"/>
-      <c r="D102" s="295"/>
-      <c r="E102" s="295"/>
-      <c r="F102" s="295"/>
-      <c r="G102" s="295"/>
-      <c r="H102" s="295"/>
-      <c r="I102" s="295"/>
-      <c r="J102" s="295"/>
-      <c r="K102" s="295"/>
+      <c r="B102" s="294"/>
+      <c r="C102" s="294"/>
+      <c r="D102" s="294"/>
+      <c r="E102" s="294"/>
+      <c r="F102" s="294"/>
+      <c r="G102" s="294"/>
+      <c r="H102" s="294"/>
+      <c r="I102" s="294"/>
+      <c r="J102" s="294"/>
+      <c r="K102" s="294"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1">
       <c r="A103" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="292" t="s">
+      <c r="B103" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="293"/>
-      <c r="D103" s="293"/>
-      <c r="E103" s="293"/>
-      <c r="F103" s="293"/>
-      <c r="G103" s="293"/>
-      <c r="H103" s="293"/>
-      <c r="I103" s="293"/>
-      <c r="J103" s="293"/>
-      <c r="K103" s="294"/>
+      <c r="C103" s="292"/>
+      <c r="D103" s="292"/>
+      <c r="E103" s="292"/>
+      <c r="F103" s="292"/>
+      <c r="G103" s="292"/>
+      <c r="H103" s="292"/>
+      <c r="I103" s="292"/>
+      <c r="J103" s="292"/>
+      <c r="K103" s="293"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="44" t="s">
@@ -9043,15 +9049,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B105:K105"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="B46:K46"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B53:K53"/>
@@ -9064,18 +9067,23 @@
     <mergeCell ref="B75:K75"/>
     <mergeCell ref="B79:K79"/>
     <mergeCell ref="B83:K83"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B105:K105"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="B103:K103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A115" r:id="rId1"/>
+    <hyperlink ref="L22" r:id="rId2"/>
+    <hyperlink ref="L31" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9093,16 +9101,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
-      <c r="A3" s="291" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291"/>
-      <c r="H3" s="291"/>
+      <c r="A3" s="295" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -9168,7 +9176,7 @@
         <v>10260.480849</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9211,7 +9219,7 @@
         <v>0.88997486285728822</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9253,7 +9261,7 @@
         <v>580411.67576742568</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -9297,7 +9305,7 @@
         <v>56.567687646334178</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -9364,7 +9372,7 @@
         <v>52.832540999999999</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9407,7 +9415,7 @@
         <v>0.51491291468225031</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9449,7 +9457,7 @@
         <v>956.35669659204598</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -9493,7 +9501,7 @@
         <v>18.101660046826936</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -10230,27 +10238,27 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="111.75">
       <c r="A2" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="F2" s="65" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
@@ -10259,24 +10267,24 @@
       <c r="K2" s="65"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
       <c r="S2" s="66"/>
       <c r="T2" s="66"/>
       <c r="U2" s="66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="64">
         <v>0</v>
@@ -10336,12 +10344,12 @@
         <v>85</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="51">
         <v>5</v>
@@ -10406,7 +10414,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="51">
         <v>-200</v>
@@ -10471,7 +10479,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="51">
         <f>B6*12</f>
@@ -10556,7 +10564,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="51">
         <f>B7*B5</f>
@@ -10641,7 +10649,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10706,7 +10714,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" s="51">
         <v>0</v>
@@ -10786,7 +10794,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:U12" si="3">B11*B5</f>
@@ -10871,7 +10879,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" s="51">
         <f t="shared" ref="B14:U16" si="4">B6+B10</f>
@@ -10956,7 +10964,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15" s="51">
         <f t="shared" si="4"/>
@@ -11041,7 +11049,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="51">
         <f t="shared" si="4"/>
@@ -11126,7 +11134,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B17" s="51">
         <f>B16</f>
@@ -11231,141 +11239,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="351" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="A1" s="298" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="299" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="302" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="305" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="L3" s="309"/>
+      <c r="M3" s="310"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="300"/>
+      <c r="B4" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="355" t="s">
+      <c r="C4" s="317">
+        <v>45.6</v>
+      </c>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="320">
+        <v>502.6</v>
+      </c>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="312"/>
+      <c r="M4" s="313"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="300"/>
+      <c r="B5" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="358" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="359"/>
-      <c r="I3" s="359"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="361" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="362"/>
-      <c r="M3" s="363"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="353"/>
-      <c r="B4" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="370">
-        <v>45.6</v>
-      </c>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="372"/>
-      <c r="G4" s="373">
-        <v>502.6</v>
-      </c>
-      <c r="H4" s="374"/>
-      <c r="I4" s="374"/>
-      <c r="J4" s="375"/>
-      <c r="K4" s="364"/>
-      <c r="L4" s="365"/>
-      <c r="M4" s="366"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="353"/>
-      <c r="B5" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="376">
+      <c r="C5" s="323">
         <f>7.99*1.3</f>
         <v>10.387</v>
       </c>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="379">
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="326">
         <v>1</v>
       </c>
-      <c r="H5" s="380"/>
-      <c r="I5" s="380"/>
-      <c r="J5" s="381"/>
-      <c r="K5" s="367"/>
-      <c r="L5" s="368"/>
-      <c r="M5" s="369"/>
+      <c r="H5" s="327"/>
+      <c r="I5" s="327"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="316"/>
     </row>
     <row r="6" spans="1:13" ht="52.5" thickBot="1">
-      <c r="A6" s="354"/>
+      <c r="A6" s="301"/>
       <c r="B6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>100</v>
-      </c>
       <c r="G6" s="74" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L6" s="79" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M6" s="80" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="81"/>
       <c r="B7" s="68" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="82">
         <f>1408.889/C5</f>
         <v>135.63964571098487</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E7" s="84">
         <f>C7/C4*1000</f>
@@ -11388,14 +11396,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="82">
         <f>1407.197/C5</f>
         <v>135.47674978338307</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E8" s="84" t="e">
         <f>C8/$D$4*1000</f>
@@ -11415,17 +11423,17 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="92" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="94">
         <f>593.213/C5</f>
         <v>57.11110041397901</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="96" t="e">
         <f t="shared" ref="E9:E11" si="0">C9/$D$4*1000</f>
@@ -11445,17 +11453,17 @@
     </row>
     <row r="10" spans="1:13" ht="30">
       <c r="A10" s="92" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="94">
         <f>(212.42+74.62)/C5</f>
         <v>27.634543178973711</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10" s="96" t="e">
         <f t="shared" si="0"/>
@@ -11475,17 +11483,17 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" s="94">
         <f>526.944/C5</f>
         <v>50.731106190430339</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11" s="96" t="e">
         <f t="shared" si="0"/>
@@ -11505,10 +11513,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C12" s="105">
         <f>986.5/C5</f>
@@ -11555,10 +11563,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" s="113">
         <f ca="1">$D$12*D13/100</f>
@@ -11605,10 +11613,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="112" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C14" s="113">
         <f t="shared" ref="C14:C24" ca="1" si="3">$D$12*D14/100</f>
@@ -11655,10 +11663,10 @@
     </row>
     <row r="15" spans="1:13" ht="30">
       <c r="A15" s="112" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -11705,10 +11713,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="112" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B16" s="104" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C16" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -11755,10 +11763,10 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="112" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -11805,10 +11813,10 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="112" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C18" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -11855,10 +11863,10 @@
     </row>
     <row r="19" spans="1:22" ht="30">
       <c r="A19" s="112" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -11905,10 +11913,10 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C20" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -11955,10 +11963,10 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C21" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -12005,10 +12013,10 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="112" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C22" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -12055,10 +12063,10 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="112" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B23" s="104" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C23" s="113">
         <f t="shared" ca="1" si="3"/>
@@ -12105,10 +12113,10 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" thickBot="1">
       <c r="A24" s="119" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C24" s="121">
         <f t="shared" ca="1" si="3"/>
@@ -12155,44 +12163,44 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="320" t="s">
-        <v>257</v>
-      </c>
-      <c r="J30" s="320"/>
-      <c r="K30" s="320"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="320"/>
-      <c r="N30" s="320"/>
-      <c r="O30" s="320"/>
-      <c r="P30" s="320"/>
-      <c r="Q30" s="320"/>
-      <c r="R30" s="320"/>
-      <c r="S30" s="320"/>
-      <c r="T30" s="320"/>
+      <c r="I30" s="351" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="351"/>
+      <c r="K30" s="351"/>
+      <c r="L30" s="351"/>
+      <c r="M30" s="351"/>
+      <c r="N30" s="351"/>
+      <c r="O30" s="351"/>
+      <c r="P30" s="351"/>
+      <c r="Q30" s="351"/>
+      <c r="R30" s="351"/>
+      <c r="S30" s="351"/>
+      <c r="T30" s="351"/>
       <c r="U30" s="127"/>
       <c r="V30" s="127"/>
     </row>
@@ -12204,16 +12212,16 @@
         <v>2017</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I31" s="128"/>
       <c r="J31" s="127"/>
@@ -12227,10 +12235,10 @@
       <c r="R31" s="127"/>
       <c r="S31" s="127"/>
       <c r="T31" s="127"/>
-      <c r="U31" s="349" t="s">
-        <v>258</v>
-      </c>
-      <c r="V31" s="350"/>
+      <c r="U31" s="296" t="s">
+        <v>254</v>
+      </c>
+      <c r="V31" s="297"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="52">
@@ -12240,16 +12248,16 @@
         <v>2017</v>
       </c>
       <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>144</v>
-      </c>
-      <c r="E32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" t="s">
-        <v>148</v>
       </c>
       <c r="I32" s="129"/>
       <c r="J32" s="130">
@@ -12274,22 +12282,22 @@
         <v>2011</v>
       </c>
       <c r="Q32" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="R32" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="S32" s="130" t="s">
+        <v>257</v>
+      </c>
+      <c r="T32" s="130" t="s">
+        <v>258</v>
+      </c>
+      <c r="U32" s="141" t="s">
         <v>259</v>
       </c>
-      <c r="R32" s="130" t="s">
+      <c r="V32" s="151" t="s">
         <v>260</v>
-      </c>
-      <c r="S32" s="130" t="s">
-        <v>261</v>
-      </c>
-      <c r="T32" s="130" t="s">
-        <v>262</v>
-      </c>
-      <c r="U32" s="141" t="s">
-        <v>263</v>
-      </c>
-      <c r="V32" s="151" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19.5">
@@ -12300,19 +12308,19 @@
         <v>2017</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I33" s="131" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J33" s="132">
         <v>381404</v>
@@ -12362,19 +12370,19 @@
         <v>2017</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I34" s="134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J34" s="135"/>
       <c r="K34" s="135"/>
@@ -12398,19 +12406,19 @@
         <v>2017</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I35" s="137" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J35" s="135">
         <v>160621</v>
@@ -12460,19 +12468,19 @@
         <v>2017</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I36" s="137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J36" s="135">
         <v>58404</v>
@@ -12522,19 +12530,19 @@
         <v>2017</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I37" s="137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J37" s="135">
         <v>11072</v>
@@ -12584,19 +12592,19 @@
         <v>2017</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I38" s="137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J38" s="135">
         <v>151307</v>
@@ -12646,19 +12654,19 @@
         <v>2017</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I39" s="134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J39" s="135"/>
       <c r="K39" s="135"/>
@@ -12682,19 +12690,19 @@
         <v>2017</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I40" s="138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J40" s="135">
         <v>84617</v>
@@ -12744,19 +12752,19 @@
         <v>2017</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I41" s="138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J41" s="135">
         <v>12545</v>
@@ -12806,19 +12814,19 @@
         <v>2017</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I42" s="138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J42" s="135">
         <v>54145</v>
@@ -12868,19 +12876,19 @@
         <v>2017</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I43" s="131" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J43" s="132">
         <v>381404</v>
@@ -12930,19 +12938,19 @@
         <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I44" s="134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J44" s="135"/>
       <c r="K44" s="135"/>
@@ -12966,19 +12974,19 @@
         <v>2017</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I45" s="137" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J45" s="135">
         <v>306769</v>
@@ -13028,19 +13036,19 @@
         <v>2017</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I46" s="137" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J46" s="135">
         <v>3523</v>
@@ -13090,19 +13098,19 @@
         <v>2017</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I47" s="137" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J47" s="135">
         <v>25461</v>
@@ -13152,19 +13160,19 @@
         <v>2017</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I48" s="134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J48" s="135"/>
       <c r="K48" s="135"/>
@@ -13188,22 +13196,22 @@
         <v>2017</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I49" s="138" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J49" s="135" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K49" s="135">
         <v>23396</v>
@@ -13250,19 +13258,19 @@
         <v>2017</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I50" s="138" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J50" s="135">
         <v>5064</v>
@@ -13312,19 +13320,19 @@
         <v>2017</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I51" s="138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J51" s="135">
         <v>2623</v>
@@ -13374,19 +13382,19 @@
         <v>2017</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I52" s="137" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J52" s="135">
         <v>4444</v>
@@ -13436,19 +13444,19 @@
         <v>2017</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I53" s="137" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J53" s="135">
         <v>41207</v>
@@ -13498,19 +13506,19 @@
         <v>2017</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I54" s="134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J54" s="135"/>
       <c r="K54" s="135"/>
@@ -13534,22 +13542,22 @@
         <v>2017</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F55" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I55" s="138" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J55" s="135" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K55" s="135">
         <v>54880</v>
@@ -13596,19 +13604,19 @@
         <v>2017</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I56" s="138" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J56" s="135">
         <v>7200</v>
@@ -13658,22 +13666,22 @@
         <v>2017</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I57" s="138" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J57" s="135" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K57" s="135">
         <v>45766</v>
@@ -13720,19 +13728,19 @@
         <v>2017</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I58" s="140" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J58" s="132">
         <v>298275</v>
@@ -13782,57 +13790,57 @@
         <v>2017</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F59" t="s">
-        <v>202</v>
-      </c>
-      <c r="I59" s="327" t="s">
-        <v>289</v>
-      </c>
-      <c r="J59" s="329">
+        <v>198</v>
+      </c>
+      <c r="I59" s="337" t="s">
+        <v>285</v>
+      </c>
+      <c r="J59" s="343">
         <v>6332.1</v>
       </c>
-      <c r="K59" s="329">
+      <c r="K59" s="343">
         <v>7771</v>
       </c>
-      <c r="L59" s="329">
+      <c r="L59" s="343">
         <v>10126</v>
       </c>
-      <c r="M59" s="329">
+      <c r="M59" s="343">
         <v>13716.3</v>
       </c>
-      <c r="N59" s="329">
+      <c r="N59" s="343">
         <v>14372.8</v>
       </c>
-      <c r="O59" s="329">
+      <c r="O59" s="343">
         <v>18485.599999999999</v>
       </c>
-      <c r="P59" s="329">
+      <c r="P59" s="343">
         <v>21637.9</v>
       </c>
-      <c r="Q59" s="329">
+      <c r="Q59" s="343">
         <v>25206.400000000001</v>
       </c>
-      <c r="R59" s="347">
+      <c r="R59" s="349">
         <v>26719.4</v>
       </c>
-      <c r="S59" s="329">
+      <c r="S59" s="343">
         <v>26782.1</v>
       </c>
-      <c r="T59" s="321">
+      <c r="T59" s="352">
         <v>31803.1</v>
       </c>
-      <c r="U59" s="340">
+      <c r="U59" s="335">
         <v>37079.9</v>
       </c>
-      <c r="V59" s="343">
+      <c r="V59" s="345">
         <v>47269.7</v>
       </c>
     </row>
@@ -13844,31 +13852,31 @@
         <v>2017</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
-        <v>204</v>
-      </c>
-      <c r="I60" s="328"/>
-      <c r="J60" s="330"/>
-      <c r="K60" s="330"/>
-      <c r="L60" s="330"/>
-      <c r="M60" s="330"/>
-      <c r="N60" s="330"/>
-      <c r="O60" s="330"/>
-      <c r="P60" s="330"/>
-      <c r="Q60" s="330"/>
-      <c r="R60" s="348"/>
-      <c r="S60" s="330"/>
-      <c r="T60" s="322"/>
-      <c r="U60" s="341"/>
-      <c r="V60" s="344"/>
+        <v>200</v>
+      </c>
+      <c r="I60" s="339"/>
+      <c r="J60" s="344"/>
+      <c r="K60" s="344"/>
+      <c r="L60" s="344"/>
+      <c r="M60" s="344"/>
+      <c r="N60" s="344"/>
+      <c r="O60" s="344"/>
+      <c r="P60" s="344"/>
+      <c r="Q60" s="344"/>
+      <c r="R60" s="350"/>
+      <c r="S60" s="344"/>
+      <c r="T60" s="353"/>
+      <c r="U60" s="336"/>
+      <c r="V60" s="346"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="52">
@@ -13878,57 +13886,57 @@
         <v>2017</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
-      </c>
-      <c r="I61" s="327" t="s">
-        <v>290</v>
-      </c>
-      <c r="J61" s="324">
+        <v>202</v>
+      </c>
+      <c r="I61" s="337" t="s">
+        <v>286</v>
+      </c>
+      <c r="J61" s="340">
         <v>123.9</v>
       </c>
-      <c r="K61" s="324">
+      <c r="K61" s="340">
         <v>111.8</v>
       </c>
-      <c r="L61" s="324">
+      <c r="L61" s="340">
         <v>114.8</v>
       </c>
-      <c r="M61" s="324">
+      <c r="M61" s="340">
         <v>107.6</v>
       </c>
-      <c r="N61" s="324">
+      <c r="N61" s="340">
         <v>90</v>
       </c>
-      <c r="O61" s="324">
+      <c r="O61" s="340">
         <v>117.1</v>
       </c>
-      <c r="P61" s="324">
+      <c r="P61" s="340">
         <v>108</v>
       </c>
-      <c r="Q61" s="324">
+      <c r="Q61" s="340">
         <v>113.9</v>
       </c>
-      <c r="R61" s="331">
+      <c r="R61" s="355">
         <v>106.1</v>
       </c>
-      <c r="S61" s="324">
+      <c r="S61" s="340">
         <v>88.5</v>
       </c>
-      <c r="T61" s="321">
+      <c r="T61" s="352">
         <v>79.599999999999994</v>
       </c>
-      <c r="U61" s="337">
+      <c r="U61" s="332">
         <v>102</v>
       </c>
-      <c r="V61" s="345">
+      <c r="V61" s="347">
         <v>110.9</v>
       </c>
     </row>
@@ -13940,31 +13948,31 @@
         <v>2017</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
-      </c>
-      <c r="I62" s="342"/>
-      <c r="J62" s="325"/>
-      <c r="K62" s="325"/>
-      <c r="L62" s="325"/>
-      <c r="M62" s="325"/>
-      <c r="N62" s="325"/>
-      <c r="O62" s="325"/>
-      <c r="P62" s="325"/>
-      <c r="Q62" s="325"/>
-      <c r="R62" s="332"/>
-      <c r="S62" s="325"/>
-      <c r="T62" s="323"/>
-      <c r="U62" s="338"/>
-      <c r="V62" s="346"/>
+        <v>204</v>
+      </c>
+      <c r="I62" s="338"/>
+      <c r="J62" s="341"/>
+      <c r="K62" s="341"/>
+      <c r="L62" s="341"/>
+      <c r="M62" s="341"/>
+      <c r="N62" s="341"/>
+      <c r="O62" s="341"/>
+      <c r="P62" s="341"/>
+      <c r="Q62" s="341"/>
+      <c r="R62" s="356"/>
+      <c r="S62" s="341"/>
+      <c r="T62" s="354"/>
+      <c r="U62" s="333"/>
+      <c r="V62" s="348"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="52">
@@ -13974,31 +13982,31 @@
         <v>2017</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F63" t="s">
-        <v>210</v>
-      </c>
-      <c r="I63" s="328"/>
-      <c r="J63" s="326"/>
-      <c r="K63" s="326"/>
-      <c r="L63" s="326"/>
-      <c r="M63" s="326"/>
-      <c r="N63" s="326"/>
-      <c r="O63" s="326"/>
-      <c r="P63" s="326"/>
-      <c r="Q63" s="326"/>
-      <c r="R63" s="333"/>
-      <c r="S63" s="326"/>
-      <c r="T63" s="322"/>
-      <c r="U63" s="339"/>
-      <c r="V63" s="346"/>
+        <v>206</v>
+      </c>
+      <c r="I63" s="339"/>
+      <c r="J63" s="342"/>
+      <c r="K63" s="342"/>
+      <c r="L63" s="342"/>
+      <c r="M63" s="342"/>
+      <c r="N63" s="342"/>
+      <c r="O63" s="342"/>
+      <c r="P63" s="342"/>
+      <c r="Q63" s="342"/>
+      <c r="R63" s="357"/>
+      <c r="S63" s="342"/>
+      <c r="T63" s="353"/>
+      <c r="U63" s="334"/>
+      <c r="V63" s="348"/>
     </row>
     <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="52">
@@ -14008,33 +14016,33 @@
         <v>2017</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
-        <v>160</v>
-      </c>
-      <c r="I64" s="334" t="s">
-        <v>291</v>
-      </c>
-      <c r="J64" s="334"/>
-      <c r="K64" s="334"/>
-      <c r="L64" s="334"/>
-      <c r="M64" s="334"/>
-      <c r="N64" s="334"/>
-      <c r="O64" s="334"/>
-      <c r="P64" s="334"/>
-      <c r="Q64" s="334"/>
-      <c r="R64" s="334"/>
-      <c r="S64" s="334"/>
-      <c r="T64" s="334"/>
-      <c r="U64" s="334"/>
-      <c r="V64" s="335"/>
+        <v>156</v>
+      </c>
+      <c r="I64" s="329" t="s">
+        <v>287</v>
+      </c>
+      <c r="J64" s="329"/>
+      <c r="K64" s="329"/>
+      <c r="L64" s="329"/>
+      <c r="M64" s="329"/>
+      <c r="N64" s="329"/>
+      <c r="O64" s="329"/>
+      <c r="P64" s="329"/>
+      <c r="Q64" s="329"/>
+      <c r="R64" s="329"/>
+      <c r="S64" s="329"/>
+      <c r="T64" s="329"/>
+      <c r="U64" s="329"/>
+      <c r="V64" s="330"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="52">
@@ -14044,33 +14052,33 @@
         <v>2017</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
-      </c>
-      <c r="I65" s="336" t="s">
-        <v>292</v>
-      </c>
-      <c r="J65" s="336"/>
-      <c r="K65" s="336"/>
-      <c r="L65" s="336"/>
-      <c r="M65" s="336"/>
-      <c r="N65" s="336"/>
-      <c r="O65" s="336"/>
-      <c r="P65" s="336"/>
-      <c r="Q65" s="336"/>
-      <c r="R65" s="336"/>
-      <c r="S65" s="336"/>
-      <c r="T65" s="336"/>
-      <c r="U65" s="336"/>
-      <c r="V65" s="335"/>
+        <v>156</v>
+      </c>
+      <c r="I65" s="331" t="s">
+        <v>288</v>
+      </c>
+      <c r="J65" s="331"/>
+      <c r="K65" s="331"/>
+      <c r="L65" s="331"/>
+      <c r="M65" s="331"/>
+      <c r="N65" s="331"/>
+      <c r="O65" s="331"/>
+      <c r="P65" s="331"/>
+      <c r="Q65" s="331"/>
+      <c r="R65" s="331"/>
+      <c r="S65" s="331"/>
+      <c r="T65" s="331"/>
+      <c r="U65" s="331"/>
+      <c r="V65" s="330"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="52">
@@ -14080,16 +14088,16 @@
         <v>2017</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -14100,16 +14108,16 @@
         <v>2017</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -14120,16 +14128,16 @@
         <v>2017</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -14140,28 +14148,28 @@
         <v>2017</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F69" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I69" s="152"/>
-      <c r="J69" s="309" t="s">
-        <v>293</v>
-      </c>
-      <c r="K69" s="309"/>
-      <c r="L69" s="309"/>
-      <c r="M69" s="309"/>
-      <c r="N69" s="309"/>
-      <c r="O69" s="309"/>
-      <c r="P69" s="309"/>
-      <c r="Q69" s="309"/>
+      <c r="J69" s="358" t="s">
+        <v>289</v>
+      </c>
+      <c r="K69" s="358"/>
+      <c r="L69" s="358"/>
+      <c r="M69" s="358"/>
+      <c r="N69" s="358"/>
+      <c r="O69" s="358"/>
+      <c r="P69" s="358"/>
+      <c r="Q69" s="358"/>
       <c r="R69" s="152"/>
     </row>
     <row r="70" spans="1:22">
@@ -14172,29 +14180,29 @@
         <v>2017</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>221</v>
-      </c>
-      <c r="I70" s="313" t="s">
-        <v>294</v>
-      </c>
-      <c r="J70" s="313"/>
-      <c r="K70" s="313"/>
-      <c r="L70" s="313"/>
-      <c r="M70" s="313"/>
-      <c r="N70" s="313"/>
-      <c r="O70" s="313"/>
-      <c r="P70" s="313"/>
-      <c r="Q70" s="313"/>
-      <c r="R70" s="313"/>
+        <v>217</v>
+      </c>
+      <c r="I70" s="362" t="s">
+        <v>290</v>
+      </c>
+      <c r="J70" s="362"/>
+      <c r="K70" s="362"/>
+      <c r="L70" s="362"/>
+      <c r="M70" s="362"/>
+      <c r="N70" s="362"/>
+      <c r="O70" s="362"/>
+      <c r="P70" s="362"/>
+      <c r="Q70" s="362"/>
+      <c r="R70" s="362"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="52">
@@ -14204,16 +14212,16 @@
         <v>2017</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F71" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I71" s="152"/>
       <c r="J71" s="153"/>
@@ -14230,16 +14238,16 @@
         <v>2013</v>
       </c>
       <c r="O71" s="163" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P71" s="164" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q71" s="164" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R71" s="160" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="216.75">
@@ -14250,20 +14258,20 @@
         <v>2017</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I72" s="152"/>
       <c r="J72" s="161" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K72" s="165">
         <v>3481</v>
@@ -14298,31 +14306,31 @@
         <v>2017</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I73" s="152"/>
       <c r="J73" s="154" t="s">
-        <v>300</v>
-      </c>
-      <c r="K73" s="310" t="s">
-        <v>301</v>
-      </c>
-      <c r="L73" s="311"/>
-      <c r="M73" s="311"/>
-      <c r="N73" s="311"/>
-      <c r="O73" s="311"/>
-      <c r="P73" s="311"/>
-      <c r="Q73" s="311"/>
-      <c r="R73" s="312"/>
+        <v>296</v>
+      </c>
+      <c r="K73" s="359" t="s">
+        <v>297</v>
+      </c>
+      <c r="L73" s="360"/>
+      <c r="M73" s="360"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="360"/>
+      <c r="Q73" s="360"/>
+      <c r="R73" s="361"/>
     </row>
     <row r="74" spans="1:22" ht="25.5">
       <c r="A74" s="52">
@@ -14332,20 +14340,20 @@
         <v>2017</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I74" s="152"/>
       <c r="J74" s="155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K74" s="157">
         <v>89.1</v>
@@ -14380,20 +14388,20 @@
         <v>2017</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I75" s="152"/>
       <c r="J75" s="155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K75" s="157">
         <v>47.6</v>
@@ -14428,20 +14436,20 @@
         <v>2017</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F76" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I76" s="152"/>
       <c r="J76" s="155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K76" s="157">
         <v>6.1</v>
@@ -14476,20 +14484,20 @@
         <v>2017</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I77" s="152"/>
       <c r="J77" s="155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K77" s="157">
         <v>3.4</v>
@@ -14524,23 +14532,23 @@
         <v>2017</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I78" s="152"/>
       <c r="J78" s="155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K78" s="157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L78" s="157">
         <v>25.5</v>
@@ -14572,23 +14580,23 @@
         <v>2017</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I79" s="152"/>
       <c r="J79" s="155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K79" s="157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L79" s="157">
         <v>6.8</v>
@@ -14620,20 +14628,20 @@
         <v>2017</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F80" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I80" s="152"/>
       <c r="J80" s="155" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K80" s="157">
         <v>5</v>
@@ -14668,20 +14676,20 @@
         <v>2017</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E81" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F81" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I81" s="152"/>
       <c r="J81" s="155" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K81" s="157">
         <v>0.6</v>
@@ -14716,20 +14724,20 @@
         <v>2017</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F82" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I82" s="152"/>
       <c r="J82" s="155" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K82" s="157">
         <v>0.5</v>
@@ -14764,20 +14772,20 @@
         <v>2017</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F83" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I83" s="152"/>
       <c r="J83" s="155" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K83" s="157">
         <v>4.8</v>
@@ -14812,19 +14820,19 @@
         <v>2017</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F84" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J84" s="156" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K84" s="157">
         <v>3369.8</v>
@@ -14859,19 +14867,19 @@
         <v>2017</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F85" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J85" s="167" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K85" s="168"/>
       <c r="L85" s="168"/>
@@ -14890,16 +14898,16 @@
         <v>2017</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -14910,16 +14918,16 @@
         <v>2017</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -14930,16 +14938,16 @@
         <v>2017</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F88" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -14950,16 +14958,16 @@
         <v>2017</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F89" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -14970,16 +14978,16 @@
         <v>2017</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F90" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -14990,81 +14998,81 @@
         <v>2017</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="C96" s="299" t="s">
+      <c r="C96" s="373" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" s="373"/>
+      <c r="E96" s="373"/>
+      <c r="F96" s="373"/>
+      <c r="G96" s="373"/>
+      <c r="H96" s="373"/>
+      <c r="I96" s="373"/>
+      <c r="J96" s="374"/>
+    </row>
+    <row r="97" spans="3:10">
+      <c r="C97" s="365"/>
+      <c r="D97" s="368">
+        <v>2017</v>
+      </c>
+      <c r="E97" s="369"/>
+      <c r="F97" s="369"/>
+      <c r="G97" s="369"/>
+      <c r="H97" s="369"/>
+      <c r="I97" s="369"/>
+      <c r="J97" s="370"/>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98" s="366"/>
+      <c r="D98" s="375" t="s">
+        <v>313</v>
+      </c>
+      <c r="E98" s="368" t="s">
+        <v>314</v>
+      </c>
+      <c r="F98" s="377"/>
+      <c r="G98" s="375" t="s">
+        <v>315</v>
+      </c>
+      <c r="H98" s="379" t="s">
         <v>316</v>
       </c>
-      <c r="D96" s="299"/>
-      <c r="E96" s="299"/>
-      <c r="F96" s="299"/>
-      <c r="G96" s="299"/>
-      <c r="H96" s="299"/>
-      <c r="I96" s="299"/>
-      <c r="J96" s="300"/>
-    </row>
-    <row r="97" spans="3:10">
-      <c r="C97" s="315"/>
-      <c r="D97" s="303">
-        <v>2017</v>
-      </c>
-      <c r="E97" s="318"/>
-      <c r="F97" s="318"/>
-      <c r="G97" s="318"/>
-      <c r="H97" s="318"/>
-      <c r="I97" s="318"/>
-      <c r="J97" s="319"/>
-    </row>
-    <row r="98" spans="3:10">
-      <c r="C98" s="316"/>
-      <c r="D98" s="301" t="s">
+      <c r="I98" s="379" t="s">
         <v>317</v>
       </c>
-      <c r="E98" s="303" t="s">
+      <c r="J98" s="368" t="s">
         <v>318</v>
       </c>
-      <c r="F98" s="304"/>
-      <c r="G98" s="301" t="s">
+    </row>
+    <row r="99" spans="3:10">
+      <c r="C99" s="367"/>
+      <c r="D99" s="376"/>
+      <c r="E99" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="H98" s="306" t="s">
+      <c r="F99" s="178" t="s">
         <v>320</v>
       </c>
-      <c r="I98" s="306" t="s">
-        <v>321</v>
-      </c>
-      <c r="J98" s="303" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10">
-      <c r="C99" s="317"/>
-      <c r="D99" s="302"/>
-      <c r="E99" s="179" t="s">
-        <v>323</v>
-      </c>
-      <c r="F99" s="178" t="s">
-        <v>324</v>
-      </c>
-      <c r="G99" s="305"/>
-      <c r="H99" s="307"/>
-      <c r="I99" s="307"/>
-      <c r="J99" s="308"/>
+      <c r="G99" s="378"/>
+      <c r="H99" s="380"/>
+      <c r="I99" s="380"/>
+      <c r="J99" s="381"/>
     </row>
     <row r="100" spans="3:10" ht="51">
       <c r="C100" s="181" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D100" s="176">
         <v>7139.4</v>
@@ -15089,20 +15097,20 @@
       </c>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="314" t="s">
-        <v>301</v>
-      </c>
-      <c r="D101" s="298"/>
-      <c r="E101" s="298"/>
-      <c r="F101" s="298"/>
-      <c r="G101" s="298"/>
-      <c r="H101" s="298"/>
-      <c r="I101" s="298"/>
-      <c r="J101" s="298"/>
+      <c r="C101" s="363" t="s">
+        <v>297</v>
+      </c>
+      <c r="D101" s="364"/>
+      <c r="E101" s="364"/>
+      <c r="F101" s="364"/>
+      <c r="G101" s="364"/>
+      <c r="H101" s="364"/>
+      <c r="I101" s="364"/>
+      <c r="J101" s="364"/>
     </row>
     <row r="102" spans="3:10" ht="38.25">
       <c r="C102" s="182" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D102" s="171">
         <v>92.9</v>
@@ -15128,19 +15136,19 @@
     </row>
     <row r="103" spans="3:10" ht="25.5">
       <c r="C103" s="183" t="s">
-        <v>327</v>
-      </c>
-      <c r="D103" s="314"/>
-      <c r="E103" s="314"/>
-      <c r="F103" s="314"/>
-      <c r="G103" s="314"/>
-      <c r="H103" s="314"/>
-      <c r="I103" s="314"/>
+        <v>323</v>
+      </c>
+      <c r="D103" s="363"/>
+      <c r="E103" s="363"/>
+      <c r="F103" s="363"/>
+      <c r="G103" s="363"/>
+      <c r="H103" s="363"/>
+      <c r="I103" s="363"/>
       <c r="J103" s="194"/>
     </row>
     <row r="104" spans="3:10" ht="89.25">
       <c r="C104" s="184" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D104" s="172">
         <v>47.9</v>
@@ -15166,7 +15174,7 @@
     </row>
     <row r="105" spans="3:10" ht="38.25">
       <c r="C105" s="184" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D105" s="172">
         <v>1.1000000000000001</v>
@@ -15192,7 +15200,7 @@
     </row>
     <row r="106" spans="3:10" ht="38.25">
       <c r="C106" s="184" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D106" s="172">
         <v>2</v>
@@ -15218,7 +15226,7 @@
     </row>
     <row r="107" spans="3:10" ht="25.5">
       <c r="C107" s="184" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D107" s="172">
         <v>5.5</v>
@@ -15244,7 +15252,7 @@
     </row>
     <row r="108" spans="3:10" ht="102">
       <c r="C108" s="184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D108" s="172">
         <v>17</v>
@@ -15270,7 +15278,7 @@
     </row>
     <row r="109" spans="3:10" ht="178.5">
       <c r="C109" s="185" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D109" s="172">
         <v>15.4</v>
@@ -15296,7 +15304,7 @@
     </row>
     <row r="110" spans="3:10" ht="127.5">
       <c r="C110" s="186" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D110" s="172">
         <v>5.3</v>
@@ -15322,7 +15330,7 @@
     </row>
     <row r="111" spans="3:10" ht="153">
       <c r="C111" s="184" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D111" s="172">
         <v>2</v>
@@ -15348,7 +15356,7 @@
     </row>
     <row r="112" spans="3:10" ht="25.5">
       <c r="C112" s="184" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D112" s="172">
         <v>3.8</v>
@@ -15374,7 +15382,7 @@
     </row>
     <row r="113" spans="3:10" ht="191.25">
       <c r="C113" s="192" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D113" s="172">
         <v>0.1</v>
@@ -15400,7 +15408,7 @@
     </row>
     <row r="114" spans="3:10" ht="25.5">
       <c r="C114" s="184" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D114" s="172">
         <v>3.7</v>
@@ -15426,7 +15434,7 @@
     </row>
     <row r="115" spans="3:10" ht="76.5">
       <c r="C115" s="184" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D115" s="172">
         <v>0.2</v>
@@ -15452,7 +15460,7 @@
     </row>
     <row r="116" spans="3:10">
       <c r="C116" s="184" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D116" s="172">
         <v>2.4</v>
@@ -15478,7 +15486,7 @@
     </row>
     <row r="117" spans="3:10" ht="51">
       <c r="C117" s="184" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D117" s="172">
         <v>1.6</v>
@@ -15504,7 +15512,7 @@
     </row>
     <row r="118" spans="3:10" ht="140.25">
       <c r="C118" s="192" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D118" s="172">
         <v>0.1</v>
@@ -15530,7 +15538,7 @@
     </row>
     <row r="119" spans="3:10">
       <c r="C119" s="184" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D119" s="172">
         <v>1.1000000000000001</v>
@@ -15556,7 +15564,7 @@
     </row>
     <row r="120" spans="3:10" ht="38.25">
       <c r="C120" s="184" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D120" s="172">
         <v>2.2999999999999998</v>
@@ -15582,7 +15590,7 @@
     </row>
     <row r="121" spans="3:10">
       <c r="C121" s="192" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D121" s="172"/>
       <c r="E121" s="172"/>
@@ -15594,7 +15602,7 @@
     </row>
     <row r="122" spans="3:10" ht="76.5">
       <c r="C122" s="192" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D122" s="172">
         <v>1.7</v>
@@ -15620,7 +15628,7 @@
     </row>
     <row r="123" spans="3:10" ht="153">
       <c r="C123" s="180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D123" s="172">
         <v>0.2</v>
@@ -15646,7 +15654,7 @@
     </row>
     <row r="124" spans="3:10" ht="191.25">
       <c r="C124" s="180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D124" s="172">
         <v>0</v>
@@ -15672,7 +15680,7 @@
     </row>
     <row r="125" spans="3:10" ht="51">
       <c r="C125" s="188" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D125" s="174">
         <v>2.5</v>
@@ -15698,7 +15706,7 @@
     </row>
     <row r="126" spans="3:10" ht="63.75">
       <c r="C126" s="189" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D126" s="177"/>
       <c r="E126" s="177"/>
@@ -15710,7 +15718,7 @@
     </row>
     <row r="127" spans="3:10" ht="38.25">
       <c r="C127" s="188" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D127" s="174">
         <v>51</v>
@@ -15736,7 +15744,7 @@
     </row>
     <row r="128" spans="3:10" ht="38.25">
       <c r="C128" s="188" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D128" s="174">
         <v>26.4</v>
@@ -15762,7 +15770,7 @@
     </row>
     <row r="129" spans="3:10">
       <c r="C129" s="188" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D129" s="174">
         <v>15.5</v>
@@ -15788,7 +15796,7 @@
     </row>
     <row r="130" spans="3:10" ht="127.5">
       <c r="C130" s="187" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D130" s="174">
         <v>13.8</v>
@@ -15814,7 +15822,7 @@
     </row>
     <row r="131" spans="3:10" ht="127.5">
       <c r="C131" s="190" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D131" s="175">
         <v>52.7</v>
@@ -15840,7 +15848,7 @@
     </row>
     <row r="132" spans="3:10" ht="267.75">
       <c r="C132" s="191" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D132" s="175">
         <v>7.1</v>
@@ -15866,7 +15874,7 @@
     </row>
     <row r="133" spans="3:10" ht="45">
       <c r="C133" s="170" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D133" s="169"/>
       <c r="E133" s="169"/>
@@ -15877,29 +15885,48 @@
       <c r="J133" s="169"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="296" t="s">
-        <v>358</v>
-      </c>
-      <c r="D134" s="297"/>
-      <c r="E134" s="297"/>
-      <c r="F134" s="297"/>
-      <c r="G134" s="297"/>
-      <c r="H134" s="297"/>
-      <c r="I134" s="297"/>
-      <c r="J134" s="298"/>
+      <c r="C134" s="371" t="s">
+        <v>354</v>
+      </c>
+      <c r="D134" s="372"/>
+      <c r="E134" s="372"/>
+      <c r="F134" s="372"/>
+      <c r="G134" s="372"/>
+      <c r="H134" s="372"/>
+      <c r="I134" s="372"/>
+      <c r="J134" s="364"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:M5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="K73:R73"/>
+    <mergeCell ref="I70:R70"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
     <mergeCell ref="I64:V64"/>
     <mergeCell ref="I65:V65"/>
     <mergeCell ref="U61:U63"/>
@@ -15915,37 +15942,18 @@
     <mergeCell ref="M61:M63"/>
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:M5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="I30:T30"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="K73:R73"/>
-    <mergeCell ref="I70:R70"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:J97"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="J98:J99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15963,13 +15971,13 @@
   <sheetData>
     <row r="1" spans="1:22" ht="19.5">
       <c r="A1" s="208" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="31.5">
       <c r="A2" s="209"/>
       <c r="B2" s="210" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C2" s="211">
         <v>2000</v>
@@ -15989,7 +15997,7 @@
     </row>
     <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="213" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B3" s="214"/>
       <c r="C3" s="215">
@@ -16012,7 +16020,7 @@
       <c r="A4" s="210"/>
       <c r="B4" s="214"/>
       <c r="C4" s="382" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D4" s="383"/>
       <c r="E4" s="383"/>
@@ -16021,10 +16029,10 @@
     </row>
     <row r="5" spans="1:22" ht="42">
       <c r="A5" s="216" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B5" s="217" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C5" s="218">
         <v>26106.760780853645</v>
@@ -16042,7 +16050,7 @@
         <v>121972.22569748529</v>
       </c>
       <c r="M5" s="392" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N5" s="392"/>
       <c r="O5" s="392"/>
@@ -16056,10 +16064,10 @@
     </row>
     <row r="6" spans="1:22" ht="115.5">
       <c r="A6" s="216" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B6" s="217" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C6" s="218">
         <v>5472.2252858350794</v>
@@ -16089,10 +16097,10 @@
     </row>
     <row r="7" spans="1:22" ht="94.5">
       <c r="A7" s="216" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B7" s="217" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C7" s="218">
         <v>10320.392632623802</v>
@@ -16111,7 +16119,7 @@
       </c>
       <c r="M7" s="224"/>
       <c r="N7" s="225" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O7" s="225">
         <v>2010</v>
@@ -16140,10 +16148,10 @@
     </row>
     <row r="8" spans="1:22" ht="126">
       <c r="A8" s="216" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B8" s="217" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C8" s="218">
         <v>4974.081835226646</v>
@@ -16163,7 +16171,7 @@
       <c r="M8" s="224"/>
       <c r="N8" s="224"/>
       <c r="O8" s="388" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P8" s="389"/>
       <c r="Q8" s="389"/>
@@ -16175,10 +16183,10 @@
     </row>
     <row r="9" spans="1:22" ht="52.5">
       <c r="A9" s="216" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B9" s="217" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C9" s="218">
         <v>3303.1873828168082</v>
@@ -16196,7 +16204,7 @@
         <v>23114.099837357688</v>
       </c>
       <c r="M9" s="224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N9" s="227"/>
       <c r="O9" s="232">
@@ -16226,10 +16234,10 @@
     </row>
     <row r="10" spans="1:22" ht="78.75">
       <c r="A10" s="216" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B10" s="217" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C10" s="218">
         <v>4084.7762949891548</v>
@@ -16247,10 +16255,10 @@
         <v>19146.252971349932</v>
       </c>
       <c r="M10" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N10" s="227" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O10" s="233">
         <v>189373</v>
@@ -16279,10 +16287,10 @@
     </row>
     <row r="11" spans="1:22" ht="94.5">
       <c r="A11" s="216" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B11" s="217" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C11" s="218">
         <v>4743.5756038380941</v>
@@ -16300,10 +16308,10 @@
         <v>18088.077067434006</v>
       </c>
       <c r="M11" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N11" s="227" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O11" s="233">
         <v>118720</v>
@@ -16332,10 +16340,10 @@
     </row>
     <row r="12" spans="1:22" ht="42">
       <c r="A12" s="216" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B12" s="217" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C12" s="218">
         <v>1598.8382780044851</v>
@@ -16353,10 +16361,10 @@
         <v>15789.94119854873</v>
       </c>
       <c r="M12" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N12" s="227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O12" s="233">
         <v>792317</v>
@@ -16385,10 +16393,10 @@
     </row>
     <row r="13" spans="1:22" ht="78.75">
       <c r="A13" s="216" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B13" s="217" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C13" s="218">
         <v>1942.5756406014484</v>
@@ -16406,10 +16414,10 @@
         <v>13349.430751907919</v>
       </c>
       <c r="M13" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N13" s="227" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O13" s="233">
         <v>93571</v>
@@ -16438,10 +16446,10 @@
     </row>
     <row r="14" spans="1:22" ht="56.25">
       <c r="A14" s="216" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B14" s="217" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C14" s="218">
         <v>1213.9259586044632</v>
@@ -16459,10 +16467,10 @@
         <v>12522.957587889403</v>
       </c>
       <c r="M14" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N14" s="227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O14" s="233">
         <v>24060</v>
@@ -16491,10 +16499,10 @@
     </row>
     <row r="15" spans="1:22" ht="42">
       <c r="A15" s="216" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B15" s="217" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C15" s="218">
         <v>1709.4959744127054</v>
@@ -16512,10 +16520,10 @@
         <v>11293.506818466158</v>
       </c>
       <c r="M15" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N15" s="227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O15" s="233">
         <v>132351</v>
@@ -16544,10 +16552,10 @@
     </row>
     <row r="16" spans="1:22" ht="115.5">
       <c r="A16" s="216" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B16" s="217" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C16" s="218">
         <v>1914.6354913422301</v>
@@ -16565,10 +16573,10 @@
         <v>11147.378956587014</v>
       </c>
       <c r="M16" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N16" s="227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O16" s="233">
         <v>283566</v>
@@ -16597,10 +16605,10 @@
     </row>
     <row r="17" spans="1:22" ht="78.75">
       <c r="A17" s="216" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B17" s="217" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C17" s="218">
         <v>773.31715745744646</v>
@@ -16618,10 +16626,10 @@
         <v>11012.63605654948</v>
       </c>
       <c r="M17" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N17" s="227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O17" s="233">
         <v>161779</v>
@@ -16650,10 +16658,10 @@
     </row>
     <row r="18" spans="1:22" ht="73.5">
       <c r="A18" s="216" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B18" s="217" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C18" s="218">
         <v>1531.5613396566303</v>
@@ -16671,10 +16679,10 @@
         <v>10076.566996121606</v>
       </c>
       <c r="M18" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N18" s="227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O18" s="233">
         <v>19910</v>
@@ -16703,10 +16711,10 @@
     </row>
     <row r="19" spans="1:22" ht="94.5">
       <c r="A19" s="216" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B19" s="217" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C19" s="218">
         <v>399.80147788684241</v>
@@ -16724,10 +16732,10 @@
         <v>4324.1586388089572</v>
       </c>
       <c r="M19" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N19" s="227" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O19" s="233">
         <v>68300</v>
@@ -16756,10 +16764,10 @@
     </row>
     <row r="20" spans="1:22" ht="84">
       <c r="A20" s="216" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B20" s="217" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C20" s="218">
         <v>365.24392485570382</v>
@@ -16777,10 +16785,10 @@
         <v>3126.8610033779555</v>
       </c>
       <c r="M20" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N20" s="227" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O20" s="233">
         <v>98888</v>
@@ -16809,10 +16817,10 @@
     </row>
     <row r="21" spans="1:22" ht="84">
       <c r="A21" s="216" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B21" s="217" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C21" s="218">
         <v>797.58097128782026</v>
@@ -16830,10 +16838,10 @@
         <v>3011.3849618416111</v>
       </c>
       <c r="M21" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N21" s="227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O21" s="233">
         <v>90082</v>
@@ -16862,10 +16870,10 @@
     </row>
     <row r="22" spans="1:22" ht="45">
       <c r="A22" s="216" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B22" s="217" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C22" s="218">
         <v>393.91934120069118</v>
@@ -16883,10 +16891,10 @@
         <v>2358.9390716877265</v>
       </c>
       <c r="M22" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N22" s="227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O22" s="233">
         <v>53946</v>
@@ -16915,10 +16923,10 @@
     </row>
     <row r="23" spans="1:22" ht="90">
       <c r="A23" s="216" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B23" s="217" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C23" s="218">
         <v>206.242417558178</v>
@@ -16936,10 +16944,10 @@
         <v>2287.3764543975976</v>
       </c>
       <c r="M23" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N23" s="227" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O23" s="233">
         <v>24403</v>
@@ -16968,7 +16976,7 @@
     </row>
     <row r="24" spans="1:22" ht="78.75">
       <c r="A24" s="219" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B24" s="210"/>
       <c r="C24" s="220">
@@ -16987,10 +16995,10 @@
         <v>394176.52946328034</v>
       </c>
       <c r="M24" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N24" s="227" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O24" s="233">
         <v>69434</v>
@@ -17019,7 +17027,7 @@
     </row>
     <row r="25" spans="1:22" ht="31.5">
       <c r="A25" s="216" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B25" s="217"/>
       <c r="C25" s="218">
@@ -17038,10 +17046,10 @@
         <v>25135.9939947454</v>
       </c>
       <c r="M25" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N25" s="227" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O25" s="233">
         <v>80349</v>
@@ -17070,7 +17078,7 @@
     </row>
     <row r="26" spans="1:22" ht="56.25">
       <c r="A26" s="216" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B26" s="217"/>
       <c r="C26" s="218">
@@ -17089,10 +17097,10 @@
         <v>-497.05992743650694</v>
       </c>
       <c r="M26" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N26" s="227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O26" s="233">
         <v>58478</v>
@@ -17121,7 +17129,7 @@
     </row>
     <row r="27" spans="1:22" ht="63">
       <c r="A27" s="219" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B27" s="210"/>
       <c r="C27" s="220">
@@ -17140,10 +17148,10 @@
         <v>418815.46353058924</v>
       </c>
       <c r="M27" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N27" s="227" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O27" s="233">
         <v>9908</v>
@@ -17172,10 +17180,10 @@
     </row>
     <row r="28" spans="1:22" ht="33.75">
       <c r="M28" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N28" s="227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O28" s="233">
         <v>13130</v>
@@ -17204,14 +17212,14 @@
     </row>
     <row r="29" spans="1:22" ht="52.5">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G29" s="220">
         <f>'[1]Сжатая версия'!$I$6/G3/1000</f>
         <v>176263.81834104841</v>
       </c>
       <c r="M29" s="224" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N29" s="229"/>
       <c r="O29" s="234">
@@ -17241,14 +17249,14 @@
     </row>
     <row r="30" spans="1:22" ht="22.5">
       <c r="A30" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G30" s="221">
         <f>G29/G27</f>
         <v>0.42086272759643351</v>
       </c>
       <c r="M30" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N30" s="230"/>
       <c r="O30" s="235">
@@ -17278,14 +17286,14 @@
     </row>
     <row r="31" spans="1:22" ht="22.5">
       <c r="A31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G31" s="220">
         <f>'[1]Сжатая версия'!$I$7/G3/1000</f>
         <v>81242.017190041282</v>
       </c>
       <c r="M31" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N31" s="230"/>
       <c r="O31" s="235">
@@ -17315,7 +17323,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G32" s="221">
         <f>G31/G27</f>
@@ -17334,14 +17342,14 @@
     </row>
     <row r="33" spans="1:22" ht="31.5">
       <c r="A33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G33" s="220">
         <f>'[1]Сжатая версия'!$I$10/G3/1000</f>
         <v>4855.1510196421859</v>
       </c>
       <c r="M33" s="224" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N33" s="230"/>
       <c r="O33" s="232">
@@ -17371,17 +17379,17 @@
     </row>
     <row r="34" spans="1:22" ht="78.75">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G34" s="221">
         <f>G33/G27</f>
         <v>1.1592578217417174E-2</v>
       </c>
       <c r="M34" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N34" s="231" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O34" s="233">
         <v>80385</v>
@@ -17410,17 +17418,17 @@
     </row>
     <row r="35" spans="1:22" ht="56.25">
       <c r="A35" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G35" s="220">
         <f>'[1]Сжатая версия'!$I$9/G3/1000</f>
         <v>86097.168209683485</v>
       </c>
       <c r="M35" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N35" s="231" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O35" s="233">
         <v>63436</v>
@@ -17449,17 +17457,17 @@
     </row>
     <row r="36" spans="1:22" ht="33.75">
       <c r="A36" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G36" s="221">
         <f>G35/G27</f>
         <v>0.20557304041233224</v>
       </c>
       <c r="M36" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N36" s="231" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O36" s="233">
         <v>142700</v>
@@ -17488,10 +17496,10 @@
     </row>
     <row r="37" spans="1:22" ht="78.75">
       <c r="M37" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N37" s="231" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O37" s="233">
         <v>30295</v>
@@ -17520,10 +17528,10 @@
     </row>
     <row r="38" spans="1:22" ht="56.25">
       <c r="M38" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N38" s="231" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O38" s="233">
         <v>7736</v>
@@ -17552,10 +17560,10 @@
     </row>
     <row r="39" spans="1:22" ht="22.5">
       <c r="M39" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N39" s="231" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O39" s="233">
         <v>35366</v>
@@ -17584,10 +17592,10 @@
     </row>
     <row r="40" spans="1:22" ht="90">
       <c r="M40" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N40" s="231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O40" s="233">
         <v>154994</v>
@@ -17616,10 +17624,10 @@
     </row>
     <row r="41" spans="1:22" ht="78.75">
       <c r="M41" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N41" s="231" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O41" s="233">
         <v>83027</v>
@@ -17648,10 +17656,10 @@
     </row>
     <row r="42" spans="1:22" ht="56.25">
       <c r="M42" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N42" s="231" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O42" s="233">
         <v>8932</v>
@@ -17680,10 +17688,10 @@
     </row>
     <row r="43" spans="1:22" ht="45">
       <c r="M43" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N43" s="231" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O43" s="233">
         <v>33011</v>
@@ -17712,10 +17720,10 @@
     </row>
     <row r="44" spans="1:22" ht="33.75">
       <c r="M44" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N44" s="231" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O44" s="233">
         <v>61263</v>
@@ -17744,10 +17752,10 @@
     </row>
     <row r="45" spans="1:22" ht="33.75">
       <c r="M45" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N45" s="231" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O45" s="233">
         <v>57699</v>
@@ -17776,10 +17784,10 @@
     </row>
     <row r="46" spans="1:22" ht="45">
       <c r="M46" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N46" s="231" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O46" s="233">
         <v>27265</v>
@@ -17808,10 +17816,10 @@
     </row>
     <row r="47" spans="1:22" ht="90">
       <c r="M47" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N47" s="231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O47" s="233">
         <v>11832</v>
@@ -17840,10 +17848,10 @@
     </row>
     <row r="48" spans="1:22" ht="78.75">
       <c r="M48" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N48" s="231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O48" s="233">
         <v>49863</v>
@@ -17872,10 +17880,10 @@
     </row>
     <row r="49" spans="13:22">
       <c r="M49" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N49" s="231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O49" s="233">
         <v>53462</v>
@@ -17904,10 +17912,10 @@
     </row>
     <row r="50" spans="13:22" ht="56.25">
       <c r="M50" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N50" s="231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O50" s="233">
         <v>38555</v>
@@ -17936,10 +17944,10 @@
     </row>
     <row r="51" spans="13:22" ht="45">
       <c r="M51" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N51" s="231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O51" s="233">
         <v>6074</v>
@@ -17968,10 +17976,10 @@
     </row>
     <row r="52" spans="13:22" ht="33.75">
       <c r="M52" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N52" s="231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O52" s="233">
         <v>8577</v>
@@ -18000,7 +18008,7 @@
     </row>
     <row r="53" spans="13:22" ht="52.5">
       <c r="M53" s="224" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N53" s="231"/>
       <c r="O53" s="232">
@@ -18030,7 +18038,7 @@
     </row>
     <row r="54" spans="13:22" ht="22.5">
       <c r="M54" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N54" s="228"/>
       <c r="O54" s="233">
@@ -18060,7 +18068,7 @@
     </row>
     <row r="55" spans="13:22" ht="22.5">
       <c r="M55" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N55" s="228"/>
       <c r="O55" s="233">
@@ -18092,7 +18100,7 @@
       <c r="M56" s="224"/>
       <c r="N56" s="224"/>
       <c r="O56" s="388" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P56" s="389"/>
       <c r="Q56" s="389"/>
@@ -18104,7 +18112,7 @@
     </row>
     <row r="57" spans="13:22" ht="52.5">
       <c r="M57" s="224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N57" s="227"/>
       <c r="O57" s="232">
@@ -18134,10 +18142,10 @@
     </row>
     <row r="58" spans="13:22" ht="78.75">
       <c r="M58" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N58" s="227" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O58" s="233">
         <v>152205</v>
@@ -18166,10 +18174,10 @@
     </row>
     <row r="59" spans="13:22" ht="56.25">
       <c r="M59" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N59" s="227" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O59" s="233">
         <v>81990</v>
@@ -18198,10 +18206,10 @@
     </row>
     <row r="60" spans="13:22" ht="33.75">
       <c r="M60" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N60" s="227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O60" s="233">
         <v>701313</v>
@@ -18230,10 +18238,10 @@
     </row>
     <row r="61" spans="13:22" ht="78.75">
       <c r="M61" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N61" s="227" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O61" s="233">
         <v>84042</v>
@@ -18262,10 +18270,10 @@
     </row>
     <row r="62" spans="13:22" ht="56.25">
       <c r="M62" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N62" s="227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O62" s="233">
         <v>20867</v>
@@ -18294,10 +18302,10 @@
     </row>
     <row r="63" spans="13:22" ht="22.5">
       <c r="M63" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N63" s="227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O63" s="233">
         <v>100474</v>
@@ -18326,10 +18334,10 @@
     </row>
     <row r="64" spans="13:22" ht="90">
       <c r="M64" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N64" s="227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O64" s="233">
         <v>242627</v>
@@ -18358,10 +18366,10 @@
     </row>
     <row r="65" spans="13:22" ht="78.75">
       <c r="M65" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N65" s="227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O65" s="233">
         <v>143717</v>
@@ -18390,10 +18398,10 @@
     </row>
     <row r="66" spans="13:22" ht="56.25">
       <c r="M66" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N66" s="227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O66" s="233">
         <v>18557</v>
@@ -18422,10 +18430,10 @@
     </row>
     <row r="67" spans="13:22" ht="45">
       <c r="M67" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N67" s="227" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O67" s="233">
         <v>63130</v>
@@ -18454,10 +18462,10 @@
     </row>
     <row r="68" spans="13:22" ht="33.75">
       <c r="M68" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N68" s="227" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O68" s="233">
         <v>97304</v>
@@ -18486,10 +18494,10 @@
     </row>
     <row r="69" spans="13:22" ht="33.75">
       <c r="M69" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N69" s="227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O69" s="233">
         <v>79489</v>
@@ -18518,10 +18526,10 @@
     </row>
     <row r="70" spans="13:22" ht="45">
       <c r="M70" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N70" s="227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O70" s="233">
         <v>46551</v>
@@ -18550,10 +18558,10 @@
     </row>
     <row r="71" spans="13:22" ht="90">
       <c r="M71" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N71" s="227" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O71" s="233">
         <v>21245</v>
@@ -18582,10 +18590,10 @@
     </row>
     <row r="72" spans="13:22" ht="78.75">
       <c r="M72" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N72" s="227" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O72" s="233">
         <v>62740</v>
@@ -18614,10 +18622,10 @@
     </row>
     <row r="73" spans="13:22">
       <c r="M73" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N73" s="227" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O73" s="233">
         <v>69373</v>
@@ -18646,10 +18654,10 @@
     </row>
     <row r="74" spans="13:22" ht="56.25">
       <c r="M74" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N74" s="227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O74" s="233">
         <v>48878</v>
@@ -18678,10 +18686,10 @@
     </row>
     <row r="75" spans="13:22" ht="45">
       <c r="M75" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N75" s="227" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O75" s="233">
         <v>8624</v>
@@ -18710,10 +18718,10 @@
     </row>
     <row r="76" spans="13:22" ht="33.75">
       <c r="M76" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N76" s="227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O76" s="233">
         <v>11911</v>
@@ -18742,7 +18750,7 @@
     </row>
     <row r="77" spans="13:22" ht="52.5">
       <c r="M77" s="224" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N77" s="229"/>
       <c r="O77" s="232">
@@ -18772,7 +18780,7 @@
     </row>
     <row r="78" spans="13:22" ht="22.5">
       <c r="M78" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N78" s="230"/>
       <c r="O78" s="233">
@@ -18802,7 +18810,7 @@
     </row>
     <row r="79" spans="13:22" ht="22.5">
       <c r="M79" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N79" s="230"/>
       <c r="O79" s="233">
@@ -18844,7 +18852,7 @@
     </row>
     <row r="81" spans="13:22" ht="31.5">
       <c r="M81" s="224" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N81" s="230"/>
       <c r="O81" s="232">
@@ -18874,10 +18882,10 @@
     </row>
     <row r="82" spans="13:22" ht="78.75">
       <c r="M82" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N82" s="231" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O82" s="233">
         <v>63437</v>
@@ -18906,10 +18914,10 @@
     </row>
     <row r="83" spans="13:22" ht="56.25">
       <c r="M83" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N83" s="231" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O83" s="233">
         <v>41212</v>
@@ -18938,10 +18946,10 @@
     </row>
     <row r="84" spans="13:22" ht="33.75">
       <c r="M84" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N84" s="231" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O84" s="233">
         <v>138270</v>
@@ -18970,10 +18978,10 @@
     </row>
     <row r="85" spans="13:22" ht="78.75">
       <c r="M85" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N85" s="231" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O85" s="233">
         <v>29129</v>
@@ -19002,10 +19010,10 @@
     </row>
     <row r="86" spans="13:22" ht="56.25">
       <c r="M86" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N86" s="231" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O86" s="233">
         <v>6663</v>
@@ -19034,10 +19042,10 @@
     </row>
     <row r="87" spans="13:22" ht="22.5">
       <c r="M87" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N87" s="231" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O87" s="233">
         <v>23903</v>
@@ -19066,10 +19074,10 @@
     </row>
     <row r="88" spans="13:22" ht="90">
       <c r="M88" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N88" s="231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O88" s="233">
         <v>132083</v>
@@ -19098,10 +19106,10 @@
     </row>
     <row r="89" spans="13:22" ht="78.75">
       <c r="M89" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N89" s="231" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O89" s="233">
         <v>75360</v>
@@ -19130,10 +19138,10 @@
     </row>
     <row r="90" spans="13:22" ht="56.25">
       <c r="M90" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N90" s="231" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O90" s="233">
         <v>8243</v>
@@ -19162,10 +19170,10 @@
     </row>
     <row r="91" spans="13:22" ht="45">
       <c r="M91" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N91" s="231" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O91" s="233">
         <v>28601</v>
@@ -19194,10 +19202,10 @@
     </row>
     <row r="92" spans="13:22" ht="33.75">
       <c r="M92" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N92" s="231" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O92" s="233">
         <v>60665</v>
@@ -19226,10 +19234,10 @@
     </row>
     <row r="93" spans="13:22" ht="33.75">
       <c r="M93" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N93" s="231" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O93" s="233">
         <v>53470</v>
@@ -19258,10 +19266,10 @@
     </row>
     <row r="94" spans="13:22" ht="45">
       <c r="M94" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N94" s="231" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O94" s="233">
         <v>24248</v>
@@ -19290,10 +19298,10 @@
     </row>
     <row r="95" spans="13:22" ht="90">
       <c r="M95" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N95" s="231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O95" s="233">
         <v>10436</v>
@@ -19322,10 +19330,10 @@
     </row>
     <row r="96" spans="13:22" ht="78.75">
       <c r="M96" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N96" s="231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O96" s="233">
         <v>45242</v>
@@ -19354,10 +19362,10 @@
     </row>
     <row r="97" spans="13:22">
       <c r="M97" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N97" s="231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O97" s="233">
         <v>46256</v>
@@ -19386,10 +19394,10 @@
     </row>
     <row r="98" spans="13:22" ht="56.25">
       <c r="M98" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N98" s="231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O98" s="233">
         <v>31551</v>
@@ -19418,10 +19426,10 @@
     </row>
     <row r="99" spans="13:22" ht="45">
       <c r="M99" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N99" s="231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O99" s="233">
         <v>5123</v>
@@ -19450,10 +19458,10 @@
     </row>
     <row r="100" spans="13:22" ht="33.75">
       <c r="M100" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N100" s="231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O100" s="233">
         <v>8037</v>
@@ -19482,7 +19490,7 @@
     </row>
     <row r="101" spans="13:22" ht="52.5">
       <c r="M101" s="224" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N101" s="225"/>
       <c r="O101" s="232">
@@ -19512,7 +19520,7 @@
     </row>
     <row r="102" spans="13:22" ht="22.5">
       <c r="M102" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N102" s="228"/>
       <c r="O102" s="233">
@@ -19542,7 +19550,7 @@
     </row>
     <row r="103" spans="13:22" ht="22.5">
       <c r="M103" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N103" s="228"/>
       <c r="O103" s="233">
@@ -19574,7 +19582,7 @@
       <c r="M104" s="224"/>
       <c r="N104" s="224"/>
       <c r="O104" s="388" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P104" s="389"/>
       <c r="Q104" s="389"/>
@@ -19586,7 +19594,7 @@
     </row>
     <row r="105" spans="13:22" ht="52.5">
       <c r="M105" s="224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N105" s="227"/>
       <c r="O105" s="236">
@@ -19616,10 +19624,10 @@
     </row>
     <row r="106" spans="13:22" ht="78.75">
       <c r="M106" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N106" s="227" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O106" s="237">
         <v>98.6</v>
@@ -19648,10 +19656,10 @@
     </row>
     <row r="107" spans="13:22" ht="56.25">
       <c r="M107" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N107" s="227" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O107" s="237">
         <v>102.2</v>
@@ -19680,10 +19688,10 @@
     </row>
     <row r="108" spans="13:22" ht="33.75">
       <c r="M108" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N108" s="227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O108" s="237">
         <v>112.6</v>
@@ -19712,10 +19720,10 @@
     </row>
     <row r="109" spans="13:22" ht="78.75">
       <c r="M109" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N109" s="227" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O109" s="237">
         <v>108.1</v>
@@ -19744,10 +19752,10 @@
     </row>
     <row r="110" spans="13:22" ht="56.25">
       <c r="M110" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N110" s="227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O110" s="237">
         <v>134.5</v>
@@ -19776,10 +19784,10 @@
     </row>
     <row r="111" spans="13:22" ht="22.5">
       <c r="M111" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N111" s="227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O111" s="237">
         <v>89.7</v>
@@ -19808,10 +19816,10 @@
     </row>
     <row r="112" spans="13:22" ht="90">
       <c r="M112" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N112" s="227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O112" s="237">
         <v>104.9</v>
@@ -19840,10 +19848,10 @@
     </row>
     <row r="113" spans="13:22" ht="78.75">
       <c r="M113" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N113" s="227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O113" s="237">
         <v>101.9</v>
@@ -19872,10 +19880,10 @@
     </row>
     <row r="114" spans="13:22" ht="56.25">
       <c r="M114" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N114" s="227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O114" s="237">
         <v>114.2</v>
@@ -19904,10 +19912,10 @@
     </row>
     <row r="115" spans="13:22" ht="45">
       <c r="M115" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N115" s="227" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O115" s="237">
         <v>104.3</v>
@@ -19936,10 +19944,10 @@
     </row>
     <row r="116" spans="13:22" ht="33.75">
       <c r="M116" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N116" s="227" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O116" s="237">
         <v>105.5</v>
@@ -19968,10 +19976,10 @@
     </row>
     <row r="117" spans="13:22" ht="33.75">
       <c r="M117" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N117" s="227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O117" s="237">
         <v>98.8</v>
@@ -20000,10 +20008,10 @@
     </row>
     <row r="118" spans="13:22" ht="45">
       <c r="M118" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N118" s="227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O118" s="237">
         <v>94.9</v>
@@ -20032,10 +20040,10 @@
     </row>
     <row r="119" spans="13:22" ht="90">
       <c r="M119" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N119" s="227" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O119" s="237">
         <v>97.9</v>
@@ -20064,10 +20072,10 @@
     </row>
     <row r="120" spans="13:22" ht="78.75">
       <c r="M120" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N120" s="227" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O120" s="237">
         <v>109.1</v>
@@ -20096,10 +20104,10 @@
     </row>
     <row r="121" spans="13:22">
       <c r="M121" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N121" s="227" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O121" s="237">
         <v>102.3</v>
@@ -20128,10 +20136,10 @@
     </row>
     <row r="122" spans="13:22" ht="56.25">
       <c r="M122" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N122" s="227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O122" s="237">
         <v>98.8</v>
@@ -20160,10 +20168,10 @@
     </row>
     <row r="123" spans="13:22" ht="45">
       <c r="M123" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N123" s="227" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O123" s="237">
         <v>87</v>
@@ -20192,10 +20200,10 @@
     </row>
     <row r="124" spans="13:22" ht="33.75">
       <c r="M124" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N124" s="227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O124" s="237">
         <v>95.1</v>
@@ -20224,7 +20232,7 @@
     </row>
     <row r="125" spans="13:22" ht="52.5">
       <c r="M125" s="224" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N125" s="229"/>
       <c r="O125" s="236">
@@ -20254,7 +20262,7 @@
     </row>
     <row r="126" spans="13:22" ht="22.5">
       <c r="M126" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N126" s="230"/>
       <c r="O126" s="237">
@@ -20284,7 +20292,7 @@
     </row>
     <row r="127" spans="13:22" ht="22.5">
       <c r="M127" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N127" s="230"/>
       <c r="O127" s="237">
@@ -20326,7 +20334,7 @@
     </row>
     <row r="129" spans="13:22" ht="31.5">
       <c r="M129" s="224" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N129" s="230"/>
       <c r="O129" s="238">
@@ -20356,10 +20364,10 @@
     </row>
     <row r="130" spans="13:22" ht="78.75">
       <c r="M130" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N130" s="231" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O130" s="239">
         <v>100</v>
@@ -20388,10 +20396,10 @@
     </row>
     <row r="131" spans="13:22" ht="56.25">
       <c r="M131" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N131" s="231" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O131" s="239">
         <v>104.6</v>
@@ -20420,10 +20428,10 @@
     </row>
     <row r="132" spans="13:22" ht="33.75">
       <c r="M132" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N132" s="231" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O132" s="239">
         <v>104.6</v>
@@ -20452,10 +20460,10 @@
     </row>
     <row r="133" spans="13:22" ht="78.75">
       <c r="M133" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N133" s="231" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O133" s="239">
         <v>104.2</v>
@@ -20484,10 +20492,10 @@
     </row>
     <row r="134" spans="13:22" ht="56.25">
       <c r="M134" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N134" s="231" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O134" s="239">
         <v>135.69999999999999</v>
@@ -20516,10 +20524,10 @@
     </row>
     <row r="135" spans="13:22" ht="22.5">
       <c r="M135" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N135" s="231" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O135" s="239">
         <v>100</v>
@@ -20548,10 +20556,10 @@
     </row>
     <row r="136" spans="13:22" ht="90">
       <c r="M136" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N136" s="231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O136" s="239">
         <v>107.5</v>
@@ -20580,10 +20588,10 @@
     </row>
     <row r="137" spans="13:22" ht="78.75">
       <c r="M137" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N137" s="231" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O137" s="239">
         <v>103.2</v>
@@ -20612,10 +20620,10 @@
     </row>
     <row r="138" spans="13:22" ht="56.25">
       <c r="M138" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N138" s="231" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O138" s="239">
         <v>117.4</v>
@@ -20644,10 +20652,10 @@
     </row>
     <row r="139" spans="13:22" ht="45">
       <c r="M139" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N139" s="231" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O139" s="239">
         <v>97.6</v>
@@ -20676,10 +20684,10 @@
     </row>
     <row r="140" spans="13:22" ht="33.75">
       <c r="M140" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N140" s="231" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O140" s="239">
         <v>121</v>
@@ -20708,10 +20716,10 @@
     </row>
     <row r="141" spans="13:22" ht="33.75">
       <c r="M141" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N141" s="231" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O141" s="239">
         <v>107</v>
@@ -20740,10 +20748,10 @@
     </row>
     <row r="142" spans="13:22" ht="45">
       <c r="M142" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N142" s="231" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O142" s="239">
         <v>88.5</v>
@@ -20772,10 +20780,10 @@
     </row>
     <row r="143" spans="13:22" ht="90">
       <c r="M143" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N143" s="231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O143" s="239">
         <v>103</v>
@@ -20804,10 +20812,10 @@
     </row>
     <row r="144" spans="13:22" ht="78.75">
       <c r="M144" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N144" s="231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O144" s="239">
         <v>102.1</v>
@@ -20836,10 +20844,10 @@
     </row>
     <row r="145" spans="13:22">
       <c r="M145" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N145" s="231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O145" s="239">
         <v>98.2</v>
@@ -20868,10 +20876,10 @@
     </row>
     <row r="146" spans="13:22" ht="56.25">
       <c r="M146" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N146" s="231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O146" s="239">
         <v>99.3</v>
@@ -20900,10 +20908,10 @@
     </row>
     <row r="147" spans="13:22" ht="45">
       <c r="M147" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N147" s="231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O147" s="239">
         <v>88.5</v>
@@ -20932,10 +20940,10 @@
     </row>
     <row r="148" spans="13:22" ht="33.75">
       <c r="M148" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N148" s="231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O148" s="239">
         <v>100.8</v>
@@ -20964,7 +20972,7 @@
     </row>
     <row r="149" spans="13:22" ht="52.5">
       <c r="M149" s="224" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N149" s="225"/>
       <c r="O149" s="238">
@@ -20994,7 +21002,7 @@
     </row>
     <row r="150" spans="13:22" ht="22.5">
       <c r="M150" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N150" s="228"/>
       <c r="O150" s="239">
@@ -21024,7 +21032,7 @@
     </row>
     <row r="151" spans="13:22" ht="22.5">
       <c r="M151" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N151" s="228"/>
       <c r="O151" s="239">
@@ -21056,7 +21064,7 @@
       <c r="M152" s="224"/>
       <c r="N152" s="224"/>
       <c r="O152" s="388" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P152" s="389"/>
       <c r="Q152" s="389"/>
@@ -21068,7 +21076,7 @@
     </row>
     <row r="153" spans="13:22" ht="52.5">
       <c r="M153" s="224" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N153" s="227"/>
       <c r="O153" s="238">
@@ -21098,10 +21106,10 @@
     </row>
     <row r="154" spans="13:22" ht="78.75">
       <c r="M154" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N154" s="227" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O154" s="239">
         <v>124.4</v>
@@ -21130,10 +21138,10 @@
     </row>
     <row r="155" spans="13:22" ht="56.25">
       <c r="M155" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N155" s="227" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O155" s="239">
         <v>144.80000000000001</v>
@@ -21162,10 +21170,10 @@
     </row>
     <row r="156" spans="13:22" ht="33.75">
       <c r="M156" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N156" s="227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O156" s="239">
         <v>113</v>
@@ -21194,10 +21202,10 @@
     </row>
     <row r="157" spans="13:22" ht="78.75">
       <c r="M157" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N157" s="227" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O157" s="239">
         <v>111.3</v>
@@ -21226,10 +21234,10 @@
     </row>
     <row r="158" spans="13:22" ht="56.25">
       <c r="M158" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N158" s="227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O158" s="239">
         <v>115.3</v>
@@ -21258,10 +21266,10 @@
     </row>
     <row r="159" spans="13:22" ht="22.5">
       <c r="M159" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N159" s="227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O159" s="239">
         <v>131.69999999999999</v>
@@ -21290,10 +21298,10 @@
     </row>
     <row r="160" spans="13:22" ht="90">
       <c r="M160" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N160" s="227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O160" s="239">
         <v>116.9</v>
@@ -21322,10 +21330,10 @@
     </row>
     <row r="161" spans="13:22" ht="78.75">
       <c r="M161" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N161" s="227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O161" s="239">
         <v>112.6</v>
@@ -21354,10 +21362,10 @@
     </row>
     <row r="162" spans="13:22" ht="56.25">
       <c r="M162" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N162" s="227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O162" s="239">
         <v>107.3</v>
@@ -21386,10 +21394,10 @@
     </row>
     <row r="163" spans="13:22" ht="45">
       <c r="M163" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N163" s="227" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O163" s="239">
         <v>108.2</v>
@@ -21418,10 +21426,10 @@
     </row>
     <row r="164" spans="13:22" ht="33.75">
       <c r="M164" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N164" s="227" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O164" s="239">
         <v>101.6</v>
@@ -21450,10 +21458,10 @@
     </row>
     <row r="165" spans="13:22" ht="33.75">
       <c r="M165" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N165" s="227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O165" s="239">
         <v>113.3</v>
@@ -21482,10 +21490,10 @@
     </row>
     <row r="166" spans="13:22" ht="45">
       <c r="M166" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N166" s="227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O166" s="239">
         <v>115.9</v>
@@ -21514,10 +21522,10 @@
     </row>
     <row r="167" spans="13:22" ht="90">
       <c r="M167" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N167" s="227" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O167" s="239">
         <v>114.9</v>
@@ -21546,10 +21554,10 @@
     </row>
     <row r="168" spans="13:22" ht="78.75">
       <c r="M168" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N168" s="227" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O168" s="239">
         <v>110.7</v>
@@ -21578,10 +21586,10 @@
     </row>
     <row r="169" spans="13:22">
       <c r="M169" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N169" s="227" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O169" s="239">
         <v>115.8</v>
@@ -21610,10 +21618,10 @@
     </row>
     <row r="170" spans="13:22" ht="56.25">
       <c r="M170" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N170" s="227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O170" s="239">
         <v>119.6</v>
@@ -21642,10 +21650,10 @@
     </row>
     <row r="171" spans="13:22" ht="45">
       <c r="M171" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N171" s="227" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O171" s="239">
         <v>114.9</v>
@@ -21674,10 +21682,10 @@
     </row>
     <row r="172" spans="13:22" ht="33.75">
       <c r="M172" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N172" s="227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O172" s="239">
         <v>110.2</v>
@@ -21706,7 +21714,7 @@
     </row>
     <row r="173" spans="13:22" ht="52.5">
       <c r="M173" s="224" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N173" s="229"/>
       <c r="O173" s="238">
@@ -21736,7 +21744,7 @@
     </row>
     <row r="174" spans="13:22" ht="22.5">
       <c r="M174" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N174" s="230"/>
       <c r="O174" s="239">
@@ -21766,7 +21774,7 @@
     </row>
     <row r="175" spans="13:22" ht="22.5">
       <c r="M175" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N175" s="230"/>
       <c r="O175" s="239">
@@ -21808,7 +21816,7 @@
     </row>
     <row r="177" spans="13:22" ht="31.5">
       <c r="M177" s="224" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N177" s="230"/>
       <c r="O177" s="236">
@@ -21838,10 +21846,10 @@
     </row>
     <row r="178" spans="13:22" ht="78.75">
       <c r="M178" s="228" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N178" s="231" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O178" s="237">
         <v>126.7</v>
@@ -21870,10 +21878,10 @@
     </row>
     <row r="179" spans="13:22" ht="56.25">
       <c r="M179" s="228" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N179" s="231" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O179" s="237">
         <v>153.9</v>
@@ -21902,10 +21910,10 @@
     </row>
     <row r="180" spans="13:22" ht="33.75">
       <c r="M180" s="228" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N180" s="231" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O180" s="237">
         <v>103.2</v>
@@ -21934,10 +21942,10 @@
     </row>
     <row r="181" spans="13:22" ht="78.75">
       <c r="M181" s="228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N181" s="231" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O181" s="237">
         <v>104</v>
@@ -21966,10 +21974,10 @@
     </row>
     <row r="182" spans="13:22" ht="56.25">
       <c r="M182" s="228" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N182" s="231" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O182" s="237">
         <v>116.1</v>
@@ -21998,10 +22006,10 @@
     </row>
     <row r="183" spans="13:22" ht="22.5">
       <c r="M183" s="228" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N183" s="231" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O183" s="237">
         <v>148</v>
@@ -22030,10 +22038,10 @@
     </row>
     <row r="184" spans="13:22" ht="90">
       <c r="M184" s="228" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N184" s="231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O184" s="237">
         <v>117.3</v>
@@ -22062,10 +22070,10 @@
     </row>
     <row r="185" spans="13:22" ht="78.75">
       <c r="M185" s="228" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N185" s="231" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O185" s="237">
         <v>110.2</v>
@@ -22094,10 +22102,10 @@
     </row>
     <row r="186" spans="13:22" ht="56.25">
       <c r="M186" s="228" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N186" s="231" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O186" s="237">
         <v>108.4</v>
@@ -22126,10 +22134,10 @@
     </row>
     <row r="187" spans="13:22" ht="45">
       <c r="M187" s="228" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N187" s="231" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O187" s="237">
         <v>115.4</v>
@@ -22158,10 +22166,10 @@
     </row>
     <row r="188" spans="13:22" ht="33.75">
       <c r="M188" s="228" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N188" s="231" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O188" s="237">
         <v>101</v>
@@ -22190,10 +22198,10 @@
     </row>
     <row r="189" spans="13:22" ht="33.75">
       <c r="M189" s="228" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N189" s="231" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O189" s="237">
         <v>107.9</v>
@@ -22222,10 +22230,10 @@
     </row>
     <row r="190" spans="13:22" ht="45">
       <c r="M190" s="228" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N190" s="231" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O190" s="237">
         <v>112.4</v>
@@ -22254,10 +22262,10 @@
     </row>
     <row r="191" spans="13:22" ht="90">
       <c r="M191" s="228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N191" s="231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O191" s="237">
         <v>113.4</v>
@@ -22286,10 +22294,10 @@
     </row>
     <row r="192" spans="13:22" ht="78.75">
       <c r="M192" s="228" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N192" s="231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O192" s="237">
         <v>110.2</v>
@@ -22318,10 +22326,10 @@
     </row>
     <row r="193" spans="13:22">
       <c r="M193" s="228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N193" s="231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O193" s="237">
         <v>115.6</v>
@@ -22350,10 +22358,10 @@
     </row>
     <row r="194" spans="13:22" ht="56.25">
       <c r="M194" s="228" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N194" s="231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O194" s="237">
         <v>122.2</v>
@@ -22382,10 +22390,10 @@
     </row>
     <row r="195" spans="13:22" ht="45">
       <c r="M195" s="228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N195" s="231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O195" s="237">
         <v>118.6</v>
@@ -22414,10 +22422,10 @@
     </row>
     <row r="196" spans="13:22" ht="33.75">
       <c r="M196" s="228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N196" s="231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O196" s="237">
         <v>106.7</v>
@@ -22446,7 +22454,7 @@
     </row>
     <row r="197" spans="13:22" ht="52.5">
       <c r="M197" s="224" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N197" s="225"/>
       <c r="O197" s="236">
@@ -22476,7 +22484,7 @@
     </row>
     <row r="198" spans="13:22" ht="22.5">
       <c r="M198" s="228" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N198" s="228"/>
       <c r="O198" s="237">
@@ -22506,7 +22514,7 @@
     </row>
     <row r="199" spans="13:22" ht="22.5">
       <c r="M199" s="228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N199" s="228"/>
       <c r="O199" s="237">
@@ -22536,7 +22544,7 @@
     </row>
     <row r="200" spans="13:22">
       <c r="M200" s="391" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N200" s="391"/>
       <c r="O200" s="391"/>
@@ -22581,7 +22589,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="397" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C2" s="397"/>
       <c r="D2" s="397"/>
@@ -22591,7 +22599,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="398" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C3" s="398"/>
       <c r="D3" s="398"/>
@@ -22599,25 +22607,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="399" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="399" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="401" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="401" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="401" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="401" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="G4" s="401" t="s">
         <v>362</v>
-      </c>
-      <c r="D4" s="401" t="s">
-        <v>363</v>
-      </c>
-      <c r="E4" s="401" t="s">
-        <v>364</v>
-      </c>
-      <c r="F4" s="401" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="401" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -22634,7 +22642,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="198" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C6" s="199">
         <v>268373</v>
@@ -22658,7 +22666,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="200" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C7" s="199">
         <v>147856</v>
@@ -22682,7 +22690,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="200" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C8" s="199">
         <v>982102</v>
@@ -22701,7 +22709,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="200" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C9" s="199">
         <v>144639</v>
@@ -22724,7 +22732,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="200" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C10" s="199">
         <v>376417</v>
@@ -22748,7 +22756,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="200" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C11" s="199">
         <v>132187</v>
@@ -22772,7 +22780,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="200" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C12" s="199">
         <v>263036</v>
@@ -22796,7 +22804,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="200" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C13" s="199">
         <v>106481</v>
@@ -22820,7 +22828,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="200" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C14" s="199">
         <v>81207</v>
@@ -22844,7 +22852,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="200" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C15" s="199">
         <v>509215</v>
@@ -22869,10 +22877,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="200" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C16" s="203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D16" s="199">
         <v>40109</v>
@@ -22891,16 +22899,16 @@
     <row r="17" spans="1:7" ht="51">
       <c r="A17" s="200"/>
       <c r="B17" s="200" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C17" s="203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D17" s="203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E17" s="203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F17" s="199">
         <v>1079.4000000000001</v>
@@ -22914,7 +22922,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="205" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C18" s="202">
         <v>3011513</v>
@@ -22939,13 +22947,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="200" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C19" s="199">
         <v>200912</v>
       </c>
       <c r="D19" s="203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E19" s="199">
         <v>200912</v>
@@ -22958,13 +22966,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C20" s="199">
         <v>-3973</v>
       </c>
       <c r="D20" s="203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E20" s="199">
         <v>-3973</v>
@@ -22977,7 +22985,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="207" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C21" s="202">
         <v>3208452</v>
@@ -23020,361 +23028,361 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:56" ht="18.75">
-      <c r="A1" s="415" t="s">
+      <c r="A1" s="405" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="405"/>
+      <c r="F1" s="405"/>
+      <c r="G1" s="405"/>
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="405"/>
+      <c r="K1" s="405"/>
+      <c r="L1" s="405"/>
+      <c r="M1" s="405"/>
+      <c r="N1" s="405"/>
+      <c r="O1" s="405"/>
+      <c r="P1" s="405"/>
+      <c r="Q1" s="405"/>
+      <c r="R1" s="405"/>
+      <c r="S1" s="405"/>
+      <c r="T1" s="405"/>
+      <c r="U1" s="405"/>
+      <c r="V1" s="405"/>
+      <c r="W1" s="405"/>
+      <c r="X1" s="405"/>
+      <c r="Y1" s="405"/>
+      <c r="Z1" s="405"/>
+      <c r="AA1" s="405"/>
+      <c r="AB1" s="405"/>
+      <c r="AC1" s="405"/>
+      <c r="AD1" s="405"/>
+      <c r="AE1" s="405"/>
+      <c r="AF1" s="405"/>
+      <c r="AG1" s="405"/>
+      <c r="AH1" s="405"/>
+      <c r="AI1" s="405"/>
+      <c r="AJ1" s="405"/>
+      <c r="AK1" s="405"/>
+      <c r="AL1" s="405"/>
+      <c r="AM1" s="405"/>
+      <c r="AN1" s="405"/>
+      <c r="AO1" s="405"/>
+      <c r="AP1" s="405"/>
+      <c r="AQ1" s="405"/>
+      <c r="AR1" s="405"/>
+      <c r="AS1" s="405"/>
+      <c r="AT1" s="405"/>
+      <c r="AU1" s="405"/>
+      <c r="AV1" s="405"/>
+      <c r="AW1" s="405"/>
+      <c r="AX1" s="405"/>
+      <c r="AY1" s="405"/>
+      <c r="AZ1" s="405"/>
+      <c r="BA1" s="405"/>
+      <c r="BB1" s="405"/>
+      <c r="BC1" s="405"/>
+      <c r="BD1" s="405"/>
+    </row>
+    <row r="2" spans="1:56">
+      <c r="A2" s="406" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="406"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
+      <c r="H2" s="406"/>
+      <c r="I2" s="406"/>
+      <c r="J2" s="406"/>
+      <c r="K2" s="406"/>
+      <c r="L2" s="406"/>
+      <c r="M2" s="406"/>
+      <c r="N2" s="406"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="406"/>
+      <c r="Q2" s="406"/>
+      <c r="R2" s="406"/>
+      <c r="S2" s="406"/>
+      <c r="T2" s="406"/>
+      <c r="U2" s="406"/>
+      <c r="V2" s="406"/>
+      <c r="W2" s="406"/>
+      <c r="X2" s="406"/>
+      <c r="Y2" s="406"/>
+      <c r="Z2" s="406"/>
+      <c r="AA2" s="406"/>
+      <c r="AB2" s="406"/>
+      <c r="AC2" s="406"/>
+      <c r="AD2" s="406"/>
+      <c r="AE2" s="406"/>
+      <c r="AF2" s="406"/>
+      <c r="AG2" s="406"/>
+      <c r="AH2" s="406"/>
+      <c r="AI2" s="406"/>
+      <c r="AJ2" s="406"/>
+      <c r="AK2" s="406"/>
+      <c r="AL2" s="406"/>
+      <c r="AM2" s="406"/>
+      <c r="AN2" s="406"/>
+      <c r="AO2" s="406"/>
+      <c r="AP2" s="406"/>
+      <c r="AQ2" s="406"/>
+      <c r="AR2" s="406"/>
+      <c r="AS2" s="406"/>
+      <c r="AT2" s="407"/>
+      <c r="AU2" s="407"/>
+      <c r="AV2" s="407"/>
+      <c r="AW2" s="407"/>
+      <c r="AX2" s="407"/>
+      <c r="AY2" s="407"/>
+      <c r="AZ2" s="407"/>
+      <c r="BA2" s="407"/>
+      <c r="BB2" s="407"/>
+      <c r="BC2" s="407"/>
+      <c r="BD2" s="407"/>
+    </row>
+    <row r="3" spans="1:56">
+      <c r="A3" s="408"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="410" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="411"/>
+      <c r="E3" s="411"/>
+      <c r="F3" s="411"/>
+      <c r="G3" s="411"/>
+      <c r="H3" s="411"/>
+      <c r="I3" s="411"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
+      <c r="N3" s="411"/>
+      <c r="O3" s="411"/>
+      <c r="P3" s="411"/>
+      <c r="Q3" s="411"/>
+      <c r="R3" s="411"/>
+      <c r="S3" s="411"/>
+      <c r="T3" s="411"/>
+      <c r="U3" s="411"/>
+      <c r="V3" s="411"/>
+      <c r="W3" s="411"/>
+      <c r="X3" s="411"/>
+      <c r="Y3" s="411"/>
+      <c r="Z3" s="411"/>
+      <c r="AA3" s="411"/>
+      <c r="AB3" s="411"/>
+      <c r="AC3" s="411"/>
+      <c r="AD3" s="411"/>
+      <c r="AE3" s="411"/>
+      <c r="AF3" s="411"/>
+      <c r="AG3" s="411"/>
+      <c r="AH3" s="411"/>
+      <c r="AI3" s="411"/>
+      <c r="AJ3" s="411"/>
+      <c r="AK3" s="411"/>
+      <c r="AL3" s="411"/>
+      <c r="AM3" s="411"/>
+      <c r="AN3" s="411"/>
+      <c r="AO3" s="411"/>
+      <c r="AP3" s="411"/>
+      <c r="AQ3" s="411"/>
+      <c r="AR3" s="411"/>
+      <c r="AS3" s="412"/>
+      <c r="AT3" s="411" t="s">
+        <v>457</v>
+      </c>
+      <c r="AU3" s="411"/>
+      <c r="AV3" s="411"/>
+      <c r="AW3" s="412"/>
+      <c r="AX3" s="410" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="415"/>
-      <c r="C1" s="415"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="415"/>
-      <c r="F1" s="415"/>
-      <c r="G1" s="415"/>
-      <c r="H1" s="415"/>
-      <c r="I1" s="415"/>
-      <c r="J1" s="415"/>
-      <c r="K1" s="415"/>
-      <c r="L1" s="415"/>
-      <c r="M1" s="415"/>
-      <c r="N1" s="415"/>
-      <c r="O1" s="415"/>
-      <c r="P1" s="415"/>
-      <c r="Q1" s="415"/>
-      <c r="R1" s="415"/>
-      <c r="S1" s="415"/>
-      <c r="T1" s="415"/>
-      <c r="U1" s="415"/>
-      <c r="V1" s="415"/>
-      <c r="W1" s="415"/>
-      <c r="X1" s="415"/>
-      <c r="Y1" s="415"/>
-      <c r="Z1" s="415"/>
-      <c r="AA1" s="415"/>
-      <c r="AB1" s="415"/>
-      <c r="AC1" s="415"/>
-      <c r="AD1" s="415"/>
-      <c r="AE1" s="415"/>
-      <c r="AF1" s="415"/>
-      <c r="AG1" s="415"/>
-      <c r="AH1" s="415"/>
-      <c r="AI1" s="415"/>
-      <c r="AJ1" s="415"/>
-      <c r="AK1" s="415"/>
-      <c r="AL1" s="415"/>
-      <c r="AM1" s="415"/>
-      <c r="AN1" s="415"/>
-      <c r="AO1" s="415"/>
-      <c r="AP1" s="415"/>
-      <c r="AQ1" s="415"/>
-      <c r="AR1" s="415"/>
-      <c r="AS1" s="415"/>
-      <c r="AT1" s="415"/>
-      <c r="AU1" s="415"/>
-      <c r="AV1" s="415"/>
-      <c r="AW1" s="415"/>
-      <c r="AX1" s="415"/>
-      <c r="AY1" s="415"/>
-      <c r="AZ1" s="415"/>
-      <c r="BA1" s="415"/>
-      <c r="BB1" s="415"/>
-      <c r="BC1" s="415"/>
-      <c r="BD1" s="415"/>
-    </row>
-    <row r="2" spans="1:56">
-      <c r="A2" s="416" t="s">
+      <c r="AY3" s="411"/>
+      <c r="AZ3" s="411"/>
+      <c r="BA3" s="412"/>
+      <c r="BB3" s="413" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="416"/>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="416"/>
-      <c r="H2" s="416"/>
-      <c r="I2" s="416"/>
-      <c r="J2" s="416"/>
-      <c r="K2" s="416"/>
-      <c r="L2" s="416"/>
-      <c r="M2" s="416"/>
-      <c r="N2" s="416"/>
-      <c r="O2" s="416"/>
-      <c r="P2" s="416"/>
-      <c r="Q2" s="416"/>
-      <c r="R2" s="416"/>
-      <c r="S2" s="416"/>
-      <c r="T2" s="416"/>
-      <c r="U2" s="416"/>
-      <c r="V2" s="416"/>
-      <c r="W2" s="416"/>
-      <c r="X2" s="416"/>
-      <c r="Y2" s="416"/>
-      <c r="Z2" s="416"/>
-      <c r="AA2" s="416"/>
-      <c r="AB2" s="416"/>
-      <c r="AC2" s="416"/>
-      <c r="AD2" s="416"/>
-      <c r="AE2" s="416"/>
-      <c r="AF2" s="416"/>
-      <c r="AG2" s="416"/>
-      <c r="AH2" s="416"/>
-      <c r="AI2" s="416"/>
-      <c r="AJ2" s="416"/>
-      <c r="AK2" s="416"/>
-      <c r="AL2" s="416"/>
-      <c r="AM2" s="416"/>
-      <c r="AN2" s="416"/>
-      <c r="AO2" s="416"/>
-      <c r="AP2" s="416"/>
-      <c r="AQ2" s="416"/>
-      <c r="AR2" s="416"/>
-      <c r="AS2" s="416"/>
-      <c r="AT2" s="417"/>
-      <c r="AU2" s="417"/>
-      <c r="AV2" s="417"/>
-      <c r="AW2" s="417"/>
-      <c r="AX2" s="417"/>
-      <c r="AY2" s="417"/>
-      <c r="AZ2" s="417"/>
-      <c r="BA2" s="417"/>
-      <c r="BB2" s="417"/>
-      <c r="BC2" s="417"/>
-      <c r="BD2" s="417"/>
-    </row>
-    <row r="3" spans="1:56">
-      <c r="A3" s="418"/>
-      <c r="B3" s="240"/>
-      <c r="C3" s="420" t="s">
+      <c r="BC3" s="413" t="s">
         <v>460</v>
       </c>
-      <c r="D3" s="421"/>
-      <c r="E3" s="421"/>
-      <c r="F3" s="421"/>
-      <c r="G3" s="421"/>
-      <c r="H3" s="421"/>
-      <c r="I3" s="421"/>
-      <c r="J3" s="421"/>
-      <c r="K3" s="421"/>
-      <c r="L3" s="421"/>
-      <c r="M3" s="421"/>
-      <c r="N3" s="421"/>
-      <c r="O3" s="421"/>
-      <c r="P3" s="421"/>
-      <c r="Q3" s="421"/>
-      <c r="R3" s="421"/>
-      <c r="S3" s="421"/>
-      <c r="T3" s="421"/>
-      <c r="U3" s="421"/>
-      <c r="V3" s="421"/>
-      <c r="W3" s="421"/>
-      <c r="X3" s="421"/>
-      <c r="Y3" s="421"/>
-      <c r="Z3" s="421"/>
-      <c r="AA3" s="421"/>
-      <c r="AB3" s="421"/>
-      <c r="AC3" s="421"/>
-      <c r="AD3" s="421"/>
-      <c r="AE3" s="421"/>
-      <c r="AF3" s="421"/>
-      <c r="AG3" s="421"/>
-      <c r="AH3" s="421"/>
-      <c r="AI3" s="421"/>
-      <c r="AJ3" s="421"/>
-      <c r="AK3" s="421"/>
-      <c r="AL3" s="421"/>
-      <c r="AM3" s="421"/>
-      <c r="AN3" s="421"/>
-      <c r="AO3" s="421"/>
-      <c r="AP3" s="421"/>
-      <c r="AQ3" s="421"/>
-      <c r="AR3" s="421"/>
-      <c r="AS3" s="422"/>
-      <c r="AT3" s="421" t="s">
+      <c r="BD3" s="415" t="s">
         <v>461</v>
       </c>
-      <c r="AU3" s="421"/>
-      <c r="AV3" s="421"/>
-      <c r="AW3" s="422"/>
-      <c r="AX3" s="420" t="s">
+    </row>
+    <row r="4" spans="1:56">
+      <c r="A4" s="409"/>
+      <c r="B4" s="417" t="s">
         <v>462</v>
       </c>
-      <c r="AY3" s="421"/>
-      <c r="AZ3" s="421"/>
-      <c r="BA3" s="422"/>
-      <c r="BB3" s="408" t="s">
+      <c r="C4" s="418" t="s">
         <v>463</v>
       </c>
-      <c r="BC3" s="408" t="s">
+      <c r="D4" s="404" t="s">
         <v>464</v>
       </c>
-      <c r="BD3" s="411" t="s">
+      <c r="E4" s="404" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="4" spans="1:56">
-      <c r="A4" s="419"/>
-      <c r="B4" s="423" t="s">
+      <c r="F4" s="404" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="414" t="s">
+      <c r="G4" s="404" t="s">
         <v>467</v>
       </c>
-      <c r="D4" s="404" t="s">
+      <c r="H4" s="404" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="404" t="s">
+      <c r="I4" s="404" t="s">
         <v>469</v>
       </c>
-      <c r="F4" s="404" t="s">
+      <c r="J4" s="404" t="s">
         <v>470</v>
       </c>
-      <c r="G4" s="404" t="s">
+      <c r="K4" s="404" t="s">
         <v>471</v>
       </c>
-      <c r="H4" s="404" t="s">
+      <c r="L4" s="404" t="s">
         <v>472</v>
       </c>
-      <c r="I4" s="404" t="s">
+      <c r="M4" s="404" t="s">
         <v>473</v>
       </c>
-      <c r="J4" s="404" t="s">
+      <c r="N4" s="404" t="s">
         <v>474</v>
       </c>
-      <c r="K4" s="404" t="s">
+      <c r="O4" s="404" t="s">
         <v>475</v>
       </c>
-      <c r="L4" s="404" t="s">
+      <c r="P4" s="404" t="s">
         <v>476</v>
       </c>
-      <c r="M4" s="404" t="s">
+      <c r="Q4" s="404" t="s">
         <v>477</v>
       </c>
-      <c r="N4" s="404" t="s">
+      <c r="R4" s="404" t="s">
         <v>478</v>
       </c>
-      <c r="O4" s="404" t="s">
+      <c r="S4" s="404" t="s">
         <v>479</v>
       </c>
-      <c r="P4" s="404" t="s">
+      <c r="T4" s="404" t="s">
         <v>480</v>
       </c>
-      <c r="Q4" s="404" t="s">
+      <c r="U4" s="404" t="s">
         <v>481</v>
       </c>
-      <c r="R4" s="404" t="s">
+      <c r="V4" s="404" t="s">
         <v>482</v>
       </c>
-      <c r="S4" s="404" t="s">
+      <c r="W4" s="404" t="s">
         <v>483</v>
       </c>
-      <c r="T4" s="404" t="s">
+      <c r="X4" s="404" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y4" s="404" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z4" s="404" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA4" s="404" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB4" s="404" t="s">
         <v>484</v>
       </c>
-      <c r="U4" s="404" t="s">
+      <c r="AC4" s="404" t="s">
         <v>485</v>
       </c>
-      <c r="V4" s="404" t="s">
+      <c r="AD4" s="404" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE4" s="404" t="s">
         <v>486</v>
       </c>
-      <c r="W4" s="404" t="s">
+      <c r="AF4" s="404" t="s">
         <v>487</v>
       </c>
-      <c r="X4" s="404" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y4" s="404" t="s">
+      <c r="AG4" s="404" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH4" s="404" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI4" s="404" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ4" s="404" t="s">
+        <v>489</v>
+      </c>
+      <c r="AK4" s="404" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL4" s="404" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM4" s="404" t="s">
+        <v>409</v>
+      </c>
+      <c r="AN4" s="404" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO4" s="419" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP4" s="404" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ4" s="404" t="s">
         <v>417</v>
       </c>
-      <c r="Z4" s="404" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA4" s="404" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB4" s="404" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC4" s="404" t="s">
-        <v>489</v>
-      </c>
-      <c r="AD4" s="404" t="s">
+      <c r="AR4" s="404" t="s">
         <v>415</v>
       </c>
-      <c r="AE4" s="404" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF4" s="404" t="s">
-        <v>491</v>
-      </c>
-      <c r="AG4" s="404" t="s">
+      <c r="AS4" s="422" t="s">
         <v>492</v>
       </c>
-      <c r="AH4" s="404" t="s">
-        <v>403</v>
-      </c>
-      <c r="AI4" s="404" t="s">
-        <v>400</v>
-      </c>
-      <c r="AJ4" s="404" t="s">
+      <c r="AT4" s="413" t="s">
+        <v>492</v>
+      </c>
+      <c r="AU4" s="404" t="s">
         <v>493</v>
       </c>
-      <c r="AK4" s="404" t="s">
+      <c r="AV4" s="404" t="s">
         <v>494</v>
       </c>
-      <c r="AL4" s="404" t="s">
+      <c r="AW4" s="423" t="s">
         <v>495</v>
       </c>
-      <c r="AM4" s="404" t="s">
-        <v>413</v>
-      </c>
-      <c r="AN4" s="404" t="s">
-        <v>407</v>
-      </c>
-      <c r="AO4" s="413" t="s">
-        <v>374</v>
-      </c>
-      <c r="AP4" s="404" t="s">
-        <v>411</v>
-      </c>
-      <c r="AQ4" s="404" t="s">
-        <v>421</v>
-      </c>
-      <c r="AR4" s="404" t="s">
-        <v>419</v>
-      </c>
-      <c r="AS4" s="407" t="s">
+      <c r="AX4" s="415" t="s">
+        <v>492</v>
+      </c>
+      <c r="AY4" s="404" t="s">
         <v>496</v>
       </c>
-      <c r="AT4" s="408" t="s">
-        <v>496</v>
-      </c>
-      <c r="AU4" s="404" t="s">
+      <c r="AZ4" s="404" t="s">
         <v>497</v>
       </c>
-      <c r="AV4" s="404" t="s">
+      <c r="BA4" s="420" t="s">
         <v>498</v>
       </c>
-      <c r="AW4" s="410" t="s">
-        <v>499</v>
-      </c>
-      <c r="AX4" s="411" t="s">
-        <v>496</v>
-      </c>
-      <c r="AY4" s="404" t="s">
-        <v>500</v>
-      </c>
-      <c r="AZ4" s="404" t="s">
-        <v>501</v>
-      </c>
-      <c r="BA4" s="405" t="s">
-        <v>502</v>
-      </c>
-      <c r="BB4" s="409"/>
-      <c r="BC4" s="409"/>
-      <c r="BD4" s="412"/>
+      <c r="BB4" s="414"/>
+      <c r="BC4" s="414"/>
+      <c r="BD4" s="416"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="419"/>
-      <c r="B5" s="423"/>
-      <c r="C5" s="414"/>
+      <c r="A5" s="409"/>
+      <c r="B5" s="417"/>
+      <c r="C5" s="418"/>
       <c r="D5" s="404"/>
       <c r="E5" s="404"/>
       <c r="F5" s="404"/>
@@ -23410,29 +23418,29 @@
       <c r="AJ5" s="404"/>
       <c r="AK5" s="404"/>
       <c r="AL5" s="404"/>
-      <c r="AM5" s="413"/>
-      <c r="AN5" s="413"/>
-      <c r="AO5" s="413"/>
-      <c r="AP5" s="413"/>
-      <c r="AQ5" s="413"/>
-      <c r="AR5" s="413"/>
-      <c r="AS5" s="407"/>
-      <c r="AT5" s="409"/>
+      <c r="AM5" s="419"/>
+      <c r="AN5" s="419"/>
+      <c r="AO5" s="419"/>
+      <c r="AP5" s="419"/>
+      <c r="AQ5" s="419"/>
+      <c r="AR5" s="419"/>
+      <c r="AS5" s="422"/>
+      <c r="AT5" s="414"/>
       <c r="AU5" s="404"/>
       <c r="AV5" s="404"/>
-      <c r="AW5" s="410"/>
-      <c r="AX5" s="412"/>
+      <c r="AW5" s="423"/>
+      <c r="AX5" s="416"/>
       <c r="AY5" s="404"/>
       <c r="AZ5" s="404"/>
-      <c r="BA5" s="406"/>
-      <c r="BB5" s="409"/>
-      <c r="BC5" s="409"/>
-      <c r="BD5" s="412"/>
+      <c r="BA5" s="421"/>
+      <c r="BB5" s="414"/>
+      <c r="BC5" s="414"/>
+      <c r="BD5" s="416"/>
     </row>
     <row r="6" spans="1:56">
-      <c r="A6" s="419"/>
-      <c r="B6" s="423"/>
-      <c r="C6" s="414"/>
+      <c r="A6" s="409"/>
+      <c r="B6" s="417"/>
+      <c r="C6" s="418"/>
       <c r="D6" s="404"/>
       <c r="E6" s="404"/>
       <c r="F6" s="404"/>
@@ -23468,193 +23476,193 @@
       <c r="AJ6" s="404"/>
       <c r="AK6" s="404"/>
       <c r="AL6" s="404"/>
-      <c r="AM6" s="413"/>
-      <c r="AN6" s="413"/>
-      <c r="AO6" s="413"/>
-      <c r="AP6" s="413"/>
-      <c r="AQ6" s="413"/>
-      <c r="AR6" s="413"/>
-      <c r="AS6" s="407"/>
-      <c r="AT6" s="409"/>
+      <c r="AM6" s="419"/>
+      <c r="AN6" s="419"/>
+      <c r="AO6" s="419"/>
+      <c r="AP6" s="419"/>
+      <c r="AQ6" s="419"/>
+      <c r="AR6" s="419"/>
+      <c r="AS6" s="422"/>
+      <c r="AT6" s="414"/>
       <c r="AU6" s="404"/>
       <c r="AV6" s="404"/>
-      <c r="AW6" s="410"/>
-      <c r="AX6" s="412"/>
+      <c r="AW6" s="423"/>
+      <c r="AX6" s="416"/>
       <c r="AY6" s="404"/>
       <c r="AZ6" s="404"/>
-      <c r="BA6" s="406"/>
-      <c r="BB6" s="409"/>
-      <c r="BC6" s="409"/>
-      <c r="BD6" s="412"/>
+      <c r="BA6" s="421"/>
+      <c r="BB6" s="414"/>
+      <c r="BC6" s="414"/>
+      <c r="BD6" s="416"/>
     </row>
     <row r="7" spans="1:56" ht="25.5">
       <c r="A7" s="241"/>
       <c r="B7" s="242"/>
       <c r="C7" s="243" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="244" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="244" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" s="244" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" s="244" t="s">
         <v>503</v>
       </c>
-      <c r="D7" s="244" t="s">
+      <c r="H7" s="244" t="s">
         <v>504</v>
       </c>
-      <c r="E7" s="244" t="s">
+      <c r="I7" s="244" t="s">
         <v>505</v>
       </c>
-      <c r="F7" s="244" t="s">
+      <c r="J7" s="244" t="s">
         <v>506</v>
       </c>
-      <c r="G7" s="244" t="s">
+      <c r="K7" s="244" t="s">
         <v>507</v>
       </c>
-      <c r="H7" s="244" t="s">
+      <c r="L7" s="244" t="s">
         <v>508</v>
       </c>
-      <c r="I7" s="244" t="s">
+      <c r="M7" s="244" t="s">
         <v>509</v>
       </c>
-      <c r="J7" s="244" t="s">
+      <c r="N7" s="244" t="s">
         <v>510</v>
       </c>
-      <c r="K7" s="244" t="s">
+      <c r="O7" s="244" t="s">
         <v>511</v>
       </c>
-      <c r="L7" s="244" t="s">
+      <c r="P7" s="244" t="s">
         <v>512</v>
       </c>
-      <c r="M7" s="244" t="s">
+      <c r="Q7" s="244" t="s">
         <v>513</v>
       </c>
-      <c r="N7" s="244" t="s">
+      <c r="R7" s="244" t="s">
         <v>514</v>
       </c>
-      <c r="O7" s="244" t="s">
+      <c r="S7" s="244" t="s">
         <v>515</v>
       </c>
-      <c r="P7" s="244" t="s">
+      <c r="T7" s="244" t="s">
         <v>516</v>
       </c>
-      <c r="Q7" s="244" t="s">
+      <c r="U7" s="244" t="s">
         <v>517</v>
       </c>
-      <c r="R7" s="244" t="s">
+      <c r="V7" s="244" t="s">
         <v>518</v>
       </c>
-      <c r="S7" s="244" t="s">
+      <c r="W7" s="245" t="s">
         <v>519</v>
       </c>
-      <c r="T7" s="244" t="s">
+      <c r="X7" s="244" t="s">
         <v>520</v>
       </c>
-      <c r="U7" s="244" t="s">
+      <c r="Y7" s="244" t="s">
         <v>521</v>
       </c>
-      <c r="V7" s="244" t="s">
+      <c r="Z7" s="244" t="s">
         <v>522</v>
       </c>
-      <c r="W7" s="245" t="s">
+      <c r="AA7" s="244" t="s">
         <v>523</v>
       </c>
-      <c r="X7" s="244" t="s">
+      <c r="AB7" s="244" t="s">
         <v>524</v>
       </c>
-      <c r="Y7" s="244" t="s">
+      <c r="AC7" s="244" t="s">
         <v>525</v>
       </c>
-      <c r="Z7" s="244" t="s">
+      <c r="AD7" s="244" t="s">
         <v>526</v>
       </c>
-      <c r="AA7" s="244" t="s">
+      <c r="AE7" s="244" t="s">
         <v>527</v>
       </c>
-      <c r="AB7" s="244" t="s">
+      <c r="AF7" s="244" t="s">
         <v>528</v>
       </c>
-      <c r="AC7" s="244" t="s">
+      <c r="AG7" s="244" t="s">
         <v>529</v>
       </c>
-      <c r="AD7" s="244" t="s">
+      <c r="AH7" s="244" t="s">
         <v>530</v>
       </c>
-      <c r="AE7" s="244" t="s">
+      <c r="AI7" s="244" t="s">
         <v>531</v>
       </c>
-      <c r="AF7" s="244" t="s">
+      <c r="AJ7" s="244" t="s">
         <v>532</v>
       </c>
-      <c r="AG7" s="244" t="s">
+      <c r="AK7" s="244" t="s">
         <v>533</v>
       </c>
-      <c r="AH7" s="244" t="s">
+      <c r="AL7" s="244" t="s">
         <v>534</v>
       </c>
-      <c r="AI7" s="244" t="s">
+      <c r="AM7" s="245" t="s">
         <v>535</v>
       </c>
-      <c r="AJ7" s="244" t="s">
+      <c r="AN7" s="245" t="s">
         <v>536</v>
       </c>
-      <c r="AK7" s="244" t="s">
+      <c r="AO7" s="245" t="s">
         <v>537</v>
       </c>
-      <c r="AL7" s="244" t="s">
+      <c r="AP7" s="245" t="s">
         <v>538</v>
       </c>
-      <c r="AM7" s="245" t="s">
+      <c r="AQ7" s="245" t="s">
         <v>539</v>
       </c>
-      <c r="AN7" s="245" t="s">
+      <c r="AR7" s="245" t="s">
         <v>540</v>
-      </c>
-      <c r="AO7" s="245" t="s">
-        <v>541</v>
-      </c>
-      <c r="AP7" s="245" t="s">
-        <v>542</v>
-      </c>
-      <c r="AQ7" s="245" t="s">
-        <v>543</v>
-      </c>
-      <c r="AR7" s="245" t="s">
-        <v>544</v>
       </c>
       <c r="AS7" s="246"/>
       <c r="AT7" s="247" t="s">
+        <v>541</v>
+      </c>
+      <c r="AU7" s="244" t="s">
+        <v>542</v>
+      </c>
+      <c r="AV7" s="244" t="s">
+        <v>543</v>
+      </c>
+      <c r="AW7" s="248" t="s">
+        <v>544</v>
+      </c>
+      <c r="AX7" s="247" t="s">
         <v>545</v>
       </c>
-      <c r="AU7" s="244" t="s">
+      <c r="AY7" s="244" t="s">
         <v>546</v>
       </c>
-      <c r="AV7" s="244" t="s">
+      <c r="AZ7" s="244" t="s">
         <v>547</v>
       </c>
-      <c r="AW7" s="248" t="s">
+      <c r="BA7" s="248" t="s">
         <v>548</v>
       </c>
-      <c r="AX7" s="247" t="s">
+      <c r="BB7" s="244" t="s">
         <v>549</v>
       </c>
-      <c r="AY7" s="244" t="s">
+      <c r="BC7" s="248" t="s">
         <v>550</v>
-      </c>
-      <c r="AZ7" s="244" t="s">
-        <v>551</v>
-      </c>
-      <c r="BA7" s="248" t="s">
-        <v>552</v>
-      </c>
-      <c r="BB7" s="244" t="s">
-        <v>553</v>
-      </c>
-      <c r="BC7" s="248" t="s">
-        <v>554</v>
       </c>
       <c r="BD7" s="249"/>
     </row>
     <row r="8" spans="1:56" ht="64.5">
       <c r="A8" s="250" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B8" s="251" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C8" s="252">
         <v>167424</v>
@@ -23821,10 +23829,10 @@
     </row>
     <row r="9" spans="1:56" ht="64.5">
       <c r="A9" s="258" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B9" s="251" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C9" s="252">
         <v>715</v>
@@ -23991,10 +23999,10 @@
     </row>
     <row r="10" spans="1:56" ht="64.5">
       <c r="A10" s="258" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B10" s="251" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C10" s="252">
         <v>5148</v>
@@ -24161,10 +24169,10 @@
     </row>
     <row r="11" spans="1:56" ht="294">
       <c r="A11" s="258" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B11" s="251" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C11" s="252">
         <v>501</v>
@@ -24331,10 +24339,10 @@
     </row>
     <row r="12" spans="1:56" ht="90">
       <c r="A12" s="258" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B12" s="251" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C12" s="252">
         <v>4991</v>
@@ -24501,10 +24509,10 @@
     </row>
     <row r="13" spans="1:56" ht="115.5">
       <c r="A13" s="258" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B13" s="251" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C13" s="252">
         <v>226</v>
@@ -24671,10 +24679,10 @@
     </row>
     <row r="14" spans="1:56" ht="128.25">
       <c r="A14" s="258" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B14" s="251" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C14" s="252">
         <v>1240</v>
@@ -24841,10 +24849,10 @@
     </row>
     <row r="15" spans="1:56" ht="64.5">
       <c r="A15" s="258" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B15" s="251" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C15" s="252">
         <v>911</v>
@@ -25011,10 +25019,10 @@
     </row>
     <row r="16" spans="1:56" ht="77.25">
       <c r="A16" s="258" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B16" s="251" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C16" s="252">
         <v>43477</v>
@@ -25181,10 +25189,10 @@
     </row>
     <row r="17" spans="1:56" ht="77.25">
       <c r="A17" s="258" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B17" s="251" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C17" s="252">
         <v>82471</v>
@@ -25351,10 +25359,10 @@
     </row>
     <row r="18" spans="1:56" ht="141">
       <c r="A18" s="258" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B18" s="251" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C18" s="252">
         <v>4723</v>
@@ -25521,10 +25529,10 @@
     </row>
     <row r="19" spans="1:56" ht="77.25">
       <c r="A19" s="258" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B19" s="251" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C19" s="252">
         <v>4150</v>
@@ -25691,10 +25699,10 @@
     </row>
     <row r="20" spans="1:56" ht="90">
       <c r="A20" s="258" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B20" s="251" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C20" s="252">
         <v>2773</v>
@@ -25861,10 +25869,10 @@
     </row>
     <row r="21" spans="1:56" ht="51.75">
       <c r="A21" s="258" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B21" s="251" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C21" s="252">
         <v>1420</v>
@@ -26031,10 +26039,10 @@
     </row>
     <row r="22" spans="1:56" ht="114.75">
       <c r="A22" s="259" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B22" s="251" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C22" s="252">
         <v>1676</v>
@@ -26201,10 +26209,10 @@
     </row>
     <row r="23" spans="1:56" ht="102.75">
       <c r="A23" s="258" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B23" s="251" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C23" s="252">
         <v>2635</v>
@@ -26371,10 +26379,10 @@
     </row>
     <row r="24" spans="1:56" ht="77.25">
       <c r="A24" s="258" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B24" s="251" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C24" s="252">
         <v>513</v>
@@ -26541,10 +26549,10 @@
     </row>
     <row r="25" spans="1:56" ht="128.25">
       <c r="A25" s="258" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B25" s="251" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C25" s="252">
         <v>14838</v>
@@ -26711,10 +26719,10 @@
     </row>
     <row r="26" spans="1:56" ht="102.75">
       <c r="A26" s="258" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B26" s="251" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C26" s="252">
         <v>14332</v>
@@ -26881,10 +26889,10 @@
     </row>
     <row r="27" spans="1:56" ht="64.5">
       <c r="A27" s="258" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B27" s="251" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C27" s="252">
         <v>2038</v>
@@ -27051,10 +27059,10 @@
     </row>
     <row r="28" spans="1:56" ht="128.25">
       <c r="A28" s="258" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B28" s="251" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C28" s="252">
         <v>524</v>
@@ -27221,10 +27229,10 @@
     </row>
     <row r="29" spans="1:56" ht="115.5">
       <c r="A29" s="258" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B29" s="251" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C29" s="260">
         <v>11561</v>
@@ -27391,10 +27399,10 @@
     </row>
     <row r="30" spans="1:56" ht="90">
       <c r="A30" s="258" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B30" s="251" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C30" s="260">
         <v>707</v>
@@ -27561,10 +27569,10 @@
     </row>
     <row r="31" spans="1:56" ht="26.25">
       <c r="A31" s="258" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B31" s="251" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C31" s="252">
         <v>2580</v>
@@ -27731,10 +27739,10 @@
     </row>
     <row r="32" spans="1:56" ht="115.5">
       <c r="A32" s="258" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B32" s="251" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C32" s="252">
         <v>94928</v>
@@ -27901,10 +27909,10 @@
     </row>
     <row r="33" spans="1:56" ht="64.5">
       <c r="A33" s="258" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B33" s="251" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C33" s="252">
         <v>33402</v>
@@ -28071,10 +28079,10 @@
     </row>
     <row r="34" spans="1:56" ht="51.75">
       <c r="A34" s="258" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B34" s="251" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C34" s="252">
         <v>61</v>
@@ -28241,10 +28249,10 @@
     </row>
     <row r="35" spans="1:56" ht="102.75">
       <c r="A35" s="258" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B35" s="251" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C35" s="252">
         <v>171</v>
@@ -28411,10 +28419,10 @@
     </row>
     <row r="36" spans="1:56" ht="268.5">
       <c r="A36" s="258" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B36" s="251" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C36" s="252">
         <v>114</v>
@@ -28581,10 +28589,10 @@
     </row>
     <row r="37" spans="1:56" ht="51.75">
       <c r="A37" s="258" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B37" s="251" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C37" s="252">
         <v>563</v>
@@ -28751,10 +28759,10 @@
     </row>
     <row r="38" spans="1:56" ht="128.25">
       <c r="A38" s="258" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B38" s="251" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C38" s="252">
         <v>225</v>
@@ -28921,10 +28929,10 @@
     </row>
     <row r="39" spans="1:56" ht="51.75">
       <c r="A39" s="258" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B39" s="251" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C39" s="252">
         <v>6785</v>
@@ -29091,10 +29099,10 @@
     </row>
     <row r="40" spans="1:56" ht="39">
       <c r="A40" s="258" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B40" s="251" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C40" s="252">
         <v>1441</v>
@@ -29261,10 +29269,10 @@
     </row>
     <row r="41" spans="1:56" ht="357.75">
       <c r="A41" s="258" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B41" s="251" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C41" s="252">
         <v>6534</v>
@@ -29431,10 +29439,10 @@
     </row>
     <row r="42" spans="1:56" ht="51.75">
       <c r="A42" s="258" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B42" s="251" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C42" s="252">
         <v>42</v>
@@ -29601,10 +29609,10 @@
     </row>
     <row r="43" spans="1:56" ht="204.75">
       <c r="A43" s="258" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B43" s="251" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C43" s="252">
         <v>1304</v>
@@ -29771,10 +29779,10 @@
     </row>
     <row r="44" spans="1:56" ht="115.5">
       <c r="A44" s="258" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B44" s="251" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C44" s="252">
         <v>4275</v>
@@ -29941,10 +29949,10 @@
     </row>
     <row r="45" spans="1:56" ht="115.5">
       <c r="A45" s="258" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B45" s="251" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C45" s="252">
         <v>741</v>
@@ -30111,10 +30119,10 @@
     </row>
     <row r="46" spans="1:56">
       <c r="A46" s="258" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B46" s="251" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C46" s="252">
         <v>51</v>
@@ -30281,10 +30289,10 @@
     </row>
     <row r="47" spans="1:56" ht="90">
       <c r="A47" s="258" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B47" s="251" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C47" s="252">
         <v>134</v>
@@ -30451,10 +30459,10 @@
     </row>
     <row r="48" spans="1:56" ht="77.25">
       <c r="A48" s="258" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B48" s="251" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C48" s="252">
         <v>33</v>
@@ -30621,10 +30629,10 @@
     </row>
     <row r="49" spans="1:56" ht="51.75">
       <c r="A49" s="258" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B49" s="251" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C49" s="252">
         <v>197</v>
@@ -30791,10 +30799,10 @@
     </row>
     <row r="50" spans="1:56">
       <c r="A50" s="261" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B50" s="262" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C50" s="263">
         <v>522575</v>
@@ -30961,10 +30969,10 @@
     </row>
     <row r="51" spans="1:56" ht="64.5">
       <c r="A51" s="268" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B51" s="269" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C51" s="253">
         <v>54657</v>
@@ -31109,10 +31117,10 @@
     </row>
     <row r="52" spans="1:56" ht="64.5">
       <c r="A52" s="268" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B52" s="269" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C52" s="253">
         <v>13982</v>
@@ -31257,10 +31265,10 @@
     </row>
     <row r="53" spans="1:56" ht="64.5">
       <c r="A53" s="268" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B53" s="269" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C53" s="253">
         <v>-6047</v>
@@ -31405,10 +31413,10 @@
     </row>
     <row r="54" spans="1:56" ht="51.75">
       <c r="A54" s="268" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B54" s="269" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C54" s="253">
         <v>252566</v>
@@ -31553,10 +31561,10 @@
     </row>
     <row r="55" spans="1:56" ht="77.25">
       <c r="A55" s="271" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B55" s="262" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C55" s="255">
         <v>315158</v>
@@ -31701,10 +31709,10 @@
     </row>
     <row r="56" spans="1:56">
       <c r="A56" s="273" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B56" s="274" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C56" s="275">
         <v>837733</v>
@@ -31849,7 +31857,7 @@
     </row>
     <row r="57" spans="1:56" ht="39">
       <c r="A57" s="268" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B57" s="268"/>
       <c r="C57" s="253"/>
@@ -31909,10 +31917,10 @@
     </row>
     <row r="58" spans="1:56" ht="39">
       <c r="A58" s="268" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B58" s="277" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C58" s="278">
         <v>303949</v>
@@ -32057,10 +32065,10 @@
     </row>
     <row r="59" spans="1:56" ht="39">
       <c r="A59" s="268" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B59" s="277" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C59" s="278">
         <v>727352</v>
@@ -32205,7 +32213,7 @@
     </row>
     <row r="60" spans="1:56" ht="51.75">
       <c r="A60" s="268" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B60" s="268"/>
       <c r="C60" s="278">
@@ -32309,6 +32317,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="AY4:AY6"/>
+    <mergeCell ref="AZ4:AZ6"/>
+    <mergeCell ref="BA4:BA6"/>
+    <mergeCell ref="AS4:AS6"/>
+    <mergeCell ref="AT4:AT6"/>
+    <mergeCell ref="AU4:AU6"/>
+    <mergeCell ref="AV4:AV6"/>
+    <mergeCell ref="AW4:AW6"/>
+    <mergeCell ref="AX4:AX6"/>
+    <mergeCell ref="AR4:AR6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AN4:AN6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="AP4:AP6"/>
+    <mergeCell ref="AQ4:AQ6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="A1:BD1"/>
     <mergeCell ref="A2:BD2"/>
@@ -32325,51 +32378,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AR4:AR6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="AN4:AN6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="AP4:AP6"/>
-    <mergeCell ref="AQ4:AQ6"/>
-    <mergeCell ref="AY4:AY6"/>
-    <mergeCell ref="AZ4:AZ6"/>
-    <mergeCell ref="BA4:BA6"/>
-    <mergeCell ref="AS4:AS6"/>
-    <mergeCell ref="AT4:AT6"/>
-    <mergeCell ref="AU4:AU6"/>
-    <mergeCell ref="AV4:AV6"/>
-    <mergeCell ref="AW4:AW6"/>
-    <mergeCell ref="AX4:AX6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32401,32 +32409,32 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="U1" s="169" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="169" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="120.75" customHeight="1">
       <c r="A3" s="280" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="281" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="281" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="281" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="281" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="281" t="s">
+      <c r="F3" s="281" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="281" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="281" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="281" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="281" t="s">
-        <v>71</v>
       </c>
       <c r="G3" s="281"/>
       <c r="H3" s="281"/>
@@ -32435,24 +32443,24 @@
       <c r="K3" s="281"/>
       <c r="L3" s="281"/>
       <c r="M3" s="281" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N3" s="282"/>
       <c r="O3" s="282"/>
       <c r="P3" s="282" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="282"/>
       <c r="R3" s="282"/>
       <c r="S3" s="282"/>
       <c r="T3" s="282"/>
       <c r="U3" s="282" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="283" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="280">
         <v>0</v>
@@ -32512,13 +32520,13 @@
         <v>85</v>
       </c>
       <c r="U4" s="280" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="9" customHeight="1"/>
     <row r="6" spans="1:21">
       <c r="A6" s="169" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="284">
         <v>5</v>
@@ -32583,7 +32591,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="169" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B7" s="284">
         <v>-100</v>
@@ -32648,7 +32656,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="169" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="284">
         <f>B7*12</f>
@@ -32733,7 +32741,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="169" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="284">
         <f>B8*B6</f>
@@ -32819,7 +32827,7 @@
     <row r="10" spans="1:21" ht="11.25" customHeight="1"/>
     <row r="11" spans="1:21">
       <c r="A11" s="169" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" s="169">
         <v>0</v>
@@ -32884,7 +32892,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="169" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B12" s="284">
         <v>0</v>
@@ -32964,7 +32972,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="169" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13" s="169">
         <f t="shared" ref="B13:U13" si="3">B12*B6</f>
@@ -33049,7 +33057,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="169" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B15" s="284">
         <f t="shared" ref="B15:U17" si="4">B7+B11</f>
@@ -33134,7 +33142,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="169" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="284">
         <f t="shared" si="4"/>
@@ -33219,7 +33227,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="169" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B17" s="284">
         <f t="shared" si="4"/>
@@ -33304,7 +33312,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="169" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B18" s="284">
         <f>B17</f>
@@ -33446,7 +33454,7 @@
         <v>85</v>
       </c>
       <c r="U19" s="280" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -33612,65 +33620,65 @@
   <sheetData>
     <row r="5" spans="1:22">
       <c r="A5" s="169" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="69.75" customHeight="1">
       <c r="A6" s="280" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="281" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="281" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="281" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="281" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="281" t="s">
+      <c r="F6" s="281" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="281" t="s">
+      <c r="G6" s="281" t="s">
+        <v>607</v>
+      </c>
+      <c r="H6" s="281" t="s">
+        <v>608</v>
+      </c>
+      <c r="I6" s="281" t="s">
+        <v>609</v>
+      </c>
+      <c r="J6" s="281" t="s">
+        <v>610</v>
+      </c>
+      <c r="K6" s="281" t="s">
+        <v>611</v>
+      </c>
+      <c r="L6" s="281" t="s">
+        <v>612</v>
+      </c>
+      <c r="M6" s="281" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" s="281" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="281" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="281" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="281" t="s">
-        <v>611</v>
-      </c>
-      <c r="H6" s="281" t="s">
-        <v>612</v>
-      </c>
-      <c r="I6" s="281" t="s">
-        <v>613</v>
-      </c>
-      <c r="J6" s="281" t="s">
-        <v>614</v>
-      </c>
-      <c r="K6" s="281" t="s">
-        <v>615</v>
-      </c>
-      <c r="L6" s="281" t="s">
-        <v>616</v>
-      </c>
-      <c r="M6" s="281" t="s">
-        <v>72</v>
       </c>
       <c r="N6" s="282"/>
       <c r="O6" s="282"/>
       <c r="P6" s="282" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="282"/>
       <c r="R6" s="282"/>
       <c r="S6" s="282"/>
       <c r="T6" s="282"/>
       <c r="U6" s="282" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="283" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="280">
         <v>0</v>
@@ -33730,13 +33738,13 @@
         <v>85</v>
       </c>
       <c r="U7" s="280" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V7" s="285"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="169" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="284">
         <v>5</v>
@@ -33801,7 +33809,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="169" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B10" s="284">
         <v>-100</v>
@@ -33866,7 +33874,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="169" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B11" s="284">
         <f>B10*12</f>
@@ -33951,7 +33959,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="286" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B12" s="284"/>
       <c r="C12" s="284"/>
@@ -33985,7 +33993,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="286" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B13" s="284"/>
       <c r="C13" s="284"/>
@@ -34019,7 +34027,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="286" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B14" s="284"/>
       <c r="C14" s="284"/>
@@ -34054,7 +34062,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="286" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B15" s="284"/>
       <c r="C15" s="284"/>
@@ -34089,7 +34097,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="286" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B16" s="284"/>
       <c r="C16" s="284"/>
@@ -34124,7 +34132,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="169" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" s="284">
         <f>(B10+B12+B13+B14+B15+B16)*12*B9</f>
@@ -34210,7 +34218,7 @@
     <row r="18" spans="1:21" ht="11.25" customHeight="1"/>
     <row r="19" spans="1:21">
       <c r="A19" s="169" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="169">
         <v>0</v>
@@ -34275,7 +34283,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="169" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" s="284">
         <v>0</v>
@@ -34355,7 +34363,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="169" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B21" s="169">
         <f t="shared" ref="B21:U21" si="3">B20*B9</f>
@@ -34440,7 +34448,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="169" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" s="284">
         <f t="shared" ref="B23:U24" si="4">B10+B19</f>
@@ -34525,7 +34533,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="169" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="284">
         <f t="shared" si="4"/>
@@ -34610,7 +34618,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="169" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B25" s="284">
         <f t="shared" ref="B25:U25" si="5">B17+B21</f>
@@ -34695,7 +34703,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="169" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B26" s="284">
         <f>B25</f>
@@ -34780,7 +34788,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="286" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B28" s="284"/>
       <c r="C28" s="284"/>
@@ -34815,7 +34823,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="286" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B29" s="284"/>
       <c r="C29" s="284"/>
@@ -34850,7 +34858,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="286" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B30" s="284"/>
       <c r="C30" s="284"/>
@@ -34885,7 +34893,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="286" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B31" s="284"/>
       <c r="C31" s="284"/>
@@ -34920,7 +34928,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="286" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B32" s="284"/>
       <c r="C32" s="284"/>
@@ -34955,7 +34963,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="286" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B33" s="284">
         <f t="shared" ref="B33:F33" si="7">(B28+B29+B30+B31+B32)*12*B9</f>
@@ -35040,7 +35048,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="286" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B34" s="284">
         <f t="shared" ref="B34:U34" si="9">B25+B33</f>
@@ -35125,7 +35133,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="286" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B35" s="284">
         <f>B34</f>
@@ -35275,7 +35283,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="169" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B40" s="169">
         <v>0</v>
@@ -35343,7 +35351,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="169" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B41" s="169">
         <v>0</v>
